--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.631110.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.631110.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBF58B11-D316-4B2D-8278-3D4883489E0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{125E40BE-612E-4A00-8C39-C92C502B4D8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T073836.331" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T064426.773" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3752" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5792" uniqueCount="75">
   <si>
     <t>Do Ty</t>
   </si>
@@ -1087,7 +1087,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ159"/>
+  <dimension ref="A1:AZ244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19116,49 +19116,9915 @@
       </c>
     </row>
     <row r="156" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>52</v>
+      </c>
+      <c r="B156" t="s">
+        <v>53</v>
+      </c>
+      <c r="C156">
+        <v>24001160</v>
+      </c>
+      <c r="D156">
+        <v>1204</v>
+      </c>
+      <c r="E156" s="1">
+        <v>45341</v>
+      </c>
       <c r="F156" t="s">
-        <v>71</v>
-      </c>
-      <c r="G156" s="2">
-        <v>2238.1</v>
-      </c>
-      <c r="H156" s="2">
-        <v>2238.1</v>
+        <v>54</v>
+      </c>
+      <c r="G156">
+        <v>0.59</v>
+      </c>
+      <c r="H156">
+        <v>0.59</v>
+      </c>
+      <c r="I156" t="s">
+        <v>55</v>
+      </c>
+      <c r="O156" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>56</v>
+      </c>
+      <c r="R156" t="s">
+        <v>57</v>
+      </c>
+      <c r="T156" t="s">
+        <v>58</v>
+      </c>
+      <c r="U156" t="s">
+        <v>59</v>
+      </c>
+      <c r="V156" t="s">
+        <v>60</v>
+      </c>
+      <c r="W156" t="s">
+        <v>61</v>
+      </c>
+      <c r="X156">
+        <v>2103708</v>
+      </c>
+      <c r="Y156" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z156" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA156">
+        <v>2</v>
+      </c>
+      <c r="AB156" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD156" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE156" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF156" t="s">
+        <v>56</v>
       </c>
       <c r="AG156">
-        <v>706</v>
+        <v>1</v>
+      </c>
+      <c r="AH156" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL156" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM156" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN156" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO156" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP156">
+        <v>1204</v>
+      </c>
+      <c r="AQ156" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR156">
+        <v>211638</v>
+      </c>
+      <c r="AU156" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV156" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX156" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY156">
+        <v>631110</v>
+      </c>
+      <c r="AZ156">
+        <v>1204.63111</v>
       </c>
     </row>
     <row r="157" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>52</v>
+      </c>
+      <c r="B157" t="s">
+        <v>53</v>
+      </c>
+      <c r="C157">
+        <v>24001160</v>
+      </c>
+      <c r="D157">
+        <v>1204</v>
+      </c>
+      <c r="E157" s="1">
+        <v>45341</v>
+      </c>
       <c r="F157" t="s">
-        <v>72</v>
-      </c>
-      <c r="G157" s="2">
-        <v>2238.1</v>
-      </c>
-      <c r="H157" s="2">
-        <v>2238.1</v>
+        <v>54</v>
+      </c>
+      <c r="G157">
+        <v>2.4</v>
+      </c>
+      <c r="H157">
+        <v>2.4</v>
+      </c>
+      <c r="I157" t="s">
+        <v>55</v>
+      </c>
+      <c r="O157" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>56</v>
+      </c>
+      <c r="R157" t="s">
+        <v>57</v>
+      </c>
+      <c r="T157" t="s">
+        <v>58</v>
+      </c>
+      <c r="U157" t="s">
+        <v>59</v>
+      </c>
+      <c r="V157" t="s">
+        <v>60</v>
+      </c>
+      <c r="W157" t="s">
+        <v>61</v>
+      </c>
+      <c r="X157">
+        <v>2103708</v>
+      </c>
+      <c r="Y157" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z157" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA157">
+        <v>4</v>
+      </c>
+      <c r="AB157" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD157" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE157" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF157" t="s">
+        <v>56</v>
       </c>
       <c r="AG157">
-        <v>706</v>
+        <v>1</v>
+      </c>
+      <c r="AH157" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL157" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM157" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN157" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO157" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP157">
+        <v>1204</v>
+      </c>
+      <c r="AQ157" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR157">
+        <v>60605</v>
+      </c>
+      <c r="AU157" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV157" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX157" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY157">
+        <v>631110</v>
+      </c>
+      <c r="AZ157">
+        <v>1204.63111</v>
       </c>
     </row>
     <row r="158" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>52</v>
+      </c>
+      <c r="B158" t="s">
+        <v>53</v>
+      </c>
+      <c r="C158">
+        <v>24001160</v>
+      </c>
+      <c r="D158">
+        <v>1204</v>
+      </c>
+      <c r="E158" s="1">
+        <v>45341</v>
+      </c>
       <c r="F158" t="s">
-        <v>73</v>
-      </c>
-      <c r="G158" s="2">
-        <v>2238.1</v>
-      </c>
-      <c r="H158" s="2">
-        <v>2238.1</v>
+        <v>54</v>
+      </c>
+      <c r="G158">
+        <v>0.97</v>
+      </c>
+      <c r="H158">
+        <v>0.97</v>
+      </c>
+      <c r="I158" t="s">
+        <v>55</v>
+      </c>
+      <c r="O158" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>56</v>
+      </c>
+      <c r="R158" t="s">
+        <v>57</v>
+      </c>
+      <c r="T158" t="s">
+        <v>58</v>
+      </c>
+      <c r="U158" t="s">
+        <v>59</v>
+      </c>
+      <c r="V158" t="s">
+        <v>60</v>
+      </c>
+      <c r="W158" t="s">
+        <v>61</v>
+      </c>
+      <c r="X158">
+        <v>2103708</v>
+      </c>
+      <c r="Y158" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z158" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA158">
+        <v>6</v>
+      </c>
+      <c r="AB158" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD158" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE158" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF158" t="s">
+        <v>56</v>
       </c>
       <c r="AG158">
-        <v>706</v>
+        <v>3</v>
+      </c>
+      <c r="AH158" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL158" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM158" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN158" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO158" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP158">
+        <v>1204</v>
+      </c>
+      <c r="AQ158" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR158">
+        <v>249245</v>
+      </c>
+      <c r="AU158" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV158" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX158" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY158">
+        <v>631110</v>
+      </c>
+      <c r="AZ158">
+        <v>1204.63111</v>
       </c>
     </row>
     <row r="159" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>52</v>
+      </c>
+      <c r="B159" t="s">
+        <v>53</v>
+      </c>
+      <c r="C159">
+        <v>24001160</v>
+      </c>
+      <c r="D159">
+        <v>1204</v>
+      </c>
+      <c r="E159" s="1">
+        <v>45341</v>
+      </c>
       <c r="F159" t="s">
+        <v>54</v>
+      </c>
+      <c r="G159">
+        <v>3.65</v>
+      </c>
+      <c r="H159">
+        <v>3.65</v>
+      </c>
+      <c r="I159" t="s">
+        <v>55</v>
+      </c>
+      <c r="O159" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>56</v>
+      </c>
+      <c r="R159" t="s">
+        <v>57</v>
+      </c>
+      <c r="T159" t="s">
+        <v>58</v>
+      </c>
+      <c r="U159" t="s">
+        <v>59</v>
+      </c>
+      <c r="V159" t="s">
+        <v>60</v>
+      </c>
+      <c r="W159" t="s">
+        <v>61</v>
+      </c>
+      <c r="X159">
+        <v>2103708</v>
+      </c>
+      <c r="Y159" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z159" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA159">
+        <v>8</v>
+      </c>
+      <c r="AB159" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD159" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE159" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF159" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG159">
+        <v>1</v>
+      </c>
+      <c r="AH159" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL159" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM159" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN159" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO159" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP159">
+        <v>1204</v>
+      </c>
+      <c r="AQ159" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR159">
+        <v>220122</v>
+      </c>
+      <c r="AU159" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV159" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX159" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY159">
+        <v>631110</v>
+      </c>
+      <c r="AZ159">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="160" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>52</v>
+      </c>
+      <c r="B160" t="s">
+        <v>53</v>
+      </c>
+      <c r="C160">
+        <v>24001160</v>
+      </c>
+      <c r="D160">
+        <v>1204</v>
+      </c>
+      <c r="E160" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F160" t="s">
+        <v>54</v>
+      </c>
+      <c r="G160">
+        <v>0.44</v>
+      </c>
+      <c r="H160">
+        <v>0.44</v>
+      </c>
+      <c r="I160" t="s">
+        <v>55</v>
+      </c>
+      <c r="O160" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>56</v>
+      </c>
+      <c r="R160" t="s">
+        <v>57</v>
+      </c>
+      <c r="T160" t="s">
+        <v>58</v>
+      </c>
+      <c r="U160" t="s">
+        <v>59</v>
+      </c>
+      <c r="V160" t="s">
+        <v>60</v>
+      </c>
+      <c r="W160" t="s">
+        <v>61</v>
+      </c>
+      <c r="X160">
+        <v>2103708</v>
+      </c>
+      <c r="Y160" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z160" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA160">
+        <v>10</v>
+      </c>
+      <c r="AB160" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD160" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE160" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF160" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG160">
+        <v>1</v>
+      </c>
+      <c r="AH160" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL160" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM160" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN160" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO160" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP160">
+        <v>1204</v>
+      </c>
+      <c r="AQ160" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR160">
+        <v>121863</v>
+      </c>
+      <c r="AU160" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV160" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX160" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY160">
+        <v>631110</v>
+      </c>
+      <c r="AZ160">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="161" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>52</v>
+      </c>
+      <c r="B161" t="s">
+        <v>53</v>
+      </c>
+      <c r="C161">
+        <v>24001160</v>
+      </c>
+      <c r="D161">
+        <v>1204</v>
+      </c>
+      <c r="E161" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F161" t="s">
+        <v>54</v>
+      </c>
+      <c r="G161">
+        <v>0.63</v>
+      </c>
+      <c r="H161">
+        <v>0.63</v>
+      </c>
+      <c r="I161" t="s">
+        <v>55</v>
+      </c>
+      <c r="O161" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>56</v>
+      </c>
+      <c r="R161" t="s">
+        <v>57</v>
+      </c>
+      <c r="T161" t="s">
+        <v>58</v>
+      </c>
+      <c r="U161" t="s">
+        <v>59</v>
+      </c>
+      <c r="V161" t="s">
+        <v>60</v>
+      </c>
+      <c r="W161" t="s">
+        <v>61</v>
+      </c>
+      <c r="X161">
+        <v>2103708</v>
+      </c>
+      <c r="Y161" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z161" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA161">
+        <v>12</v>
+      </c>
+      <c r="AB161" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD161" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE161" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF161" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG161">
+        <v>1</v>
+      </c>
+      <c r="AH161" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL161" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM161" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN161" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO161" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP161">
+        <v>1204</v>
+      </c>
+      <c r="AQ161" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR161">
+        <v>90167</v>
+      </c>
+      <c r="AU161" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV161" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX161" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY161">
+        <v>631110</v>
+      </c>
+      <c r="AZ161">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="162" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>52</v>
+      </c>
+      <c r="B162" t="s">
+        <v>53</v>
+      </c>
+      <c r="C162">
+        <v>24001160</v>
+      </c>
+      <c r="D162">
+        <v>1204</v>
+      </c>
+      <c r="E162" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F162" t="s">
+        <v>54</v>
+      </c>
+      <c r="G162">
+        <v>0.48</v>
+      </c>
+      <c r="H162">
+        <v>0.48</v>
+      </c>
+      <c r="I162" t="s">
+        <v>55</v>
+      </c>
+      <c r="O162" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>56</v>
+      </c>
+      <c r="R162" t="s">
+        <v>57</v>
+      </c>
+      <c r="T162" t="s">
+        <v>58</v>
+      </c>
+      <c r="U162" t="s">
+        <v>59</v>
+      </c>
+      <c r="V162" t="s">
+        <v>60</v>
+      </c>
+      <c r="W162" t="s">
+        <v>61</v>
+      </c>
+      <c r="X162">
+        <v>2103708</v>
+      </c>
+      <c r="Y162" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z162" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA162">
+        <v>14</v>
+      </c>
+      <c r="AB162" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD162" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE162" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF162" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG162">
+        <v>1</v>
+      </c>
+      <c r="AH162" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL162" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM162" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN162" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO162" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP162">
+        <v>1204</v>
+      </c>
+      <c r="AQ162" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR162">
+        <v>232942</v>
+      </c>
+      <c r="AU162" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV162" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX162" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY162">
+        <v>631110</v>
+      </c>
+      <c r="AZ162">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="163" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>52</v>
+      </c>
+      <c r="B163" t="s">
+        <v>53</v>
+      </c>
+      <c r="C163">
+        <v>24001160</v>
+      </c>
+      <c r="D163">
+        <v>1204</v>
+      </c>
+      <c r="E163" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F163" t="s">
+        <v>54</v>
+      </c>
+      <c r="G163">
+        <v>25.84</v>
+      </c>
+      <c r="H163">
+        <v>25.84</v>
+      </c>
+      <c r="I163" t="s">
+        <v>55</v>
+      </c>
+      <c r="O163" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>56</v>
+      </c>
+      <c r="R163" t="s">
+        <v>57</v>
+      </c>
+      <c r="T163" t="s">
+        <v>58</v>
+      </c>
+      <c r="U163" t="s">
+        <v>59</v>
+      </c>
+      <c r="V163" t="s">
+        <v>60</v>
+      </c>
+      <c r="W163" t="s">
+        <v>61</v>
+      </c>
+      <c r="X163">
+        <v>2103708</v>
+      </c>
+      <c r="Y163" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z163" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA163">
+        <v>16</v>
+      </c>
+      <c r="AB163" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD163" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE163" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF163" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG163">
+        <v>1</v>
+      </c>
+      <c r="AH163" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL163" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM163" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN163" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO163" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP163">
+        <v>1204</v>
+      </c>
+      <c r="AQ163" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR163">
+        <v>143093</v>
+      </c>
+      <c r="AU163" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV163" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX163" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY163">
+        <v>631110</v>
+      </c>
+      <c r="AZ163">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="164" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>52</v>
+      </c>
+      <c r="B164" t="s">
+        <v>53</v>
+      </c>
+      <c r="C164">
+        <v>24001160</v>
+      </c>
+      <c r="D164">
+        <v>1204</v>
+      </c>
+      <c r="E164" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F164" t="s">
+        <v>54</v>
+      </c>
+      <c r="G164">
+        <v>25.84</v>
+      </c>
+      <c r="H164">
+        <v>25.84</v>
+      </c>
+      <c r="I164" t="s">
+        <v>55</v>
+      </c>
+      <c r="O164" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>56</v>
+      </c>
+      <c r="R164" t="s">
+        <v>57</v>
+      </c>
+      <c r="T164" t="s">
+        <v>58</v>
+      </c>
+      <c r="U164" t="s">
+        <v>59</v>
+      </c>
+      <c r="V164" t="s">
+        <v>60</v>
+      </c>
+      <c r="W164" t="s">
+        <v>61</v>
+      </c>
+      <c r="X164">
+        <v>2103708</v>
+      </c>
+      <c r="Y164" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z164" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA164">
+        <v>18</v>
+      </c>
+      <c r="AB164" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD164" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE164" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF164" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG164">
+        <v>1</v>
+      </c>
+      <c r="AH164" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL164" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM164" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN164" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO164" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP164">
+        <v>1204</v>
+      </c>
+      <c r="AQ164" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR164">
+        <v>143095</v>
+      </c>
+      <c r="AU164" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV164" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX164" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY164">
+        <v>631110</v>
+      </c>
+      <c r="AZ164">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="165" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>52</v>
+      </c>
+      <c r="B165" t="s">
+        <v>53</v>
+      </c>
+      <c r="C165">
+        <v>24001160</v>
+      </c>
+      <c r="D165">
+        <v>1204</v>
+      </c>
+      <c r="E165" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F165" t="s">
+        <v>54</v>
+      </c>
+      <c r="G165">
+        <v>2.37</v>
+      </c>
+      <c r="H165">
+        <v>2.37</v>
+      </c>
+      <c r="I165" t="s">
+        <v>55</v>
+      </c>
+      <c r="O165" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>56</v>
+      </c>
+      <c r="R165" t="s">
+        <v>57</v>
+      </c>
+      <c r="T165" t="s">
+        <v>58</v>
+      </c>
+      <c r="U165" t="s">
+        <v>59</v>
+      </c>
+      <c r="V165" t="s">
+        <v>60</v>
+      </c>
+      <c r="W165" t="s">
+        <v>61</v>
+      </c>
+      <c r="X165">
+        <v>2103708</v>
+      </c>
+      <c r="Y165" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z165" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA165">
+        <v>20</v>
+      </c>
+      <c r="AB165" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD165" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE165" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF165" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG165">
+        <v>1</v>
+      </c>
+      <c r="AH165" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL165" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM165" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN165" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO165" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP165">
+        <v>1204</v>
+      </c>
+      <c r="AQ165" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR165">
+        <v>214874</v>
+      </c>
+      <c r="AU165" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV165" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX165" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY165">
+        <v>631110</v>
+      </c>
+      <c r="AZ165">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="166" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>52</v>
+      </c>
+      <c r="B166" t="s">
+        <v>53</v>
+      </c>
+      <c r="C166">
+        <v>24001160</v>
+      </c>
+      <c r="D166">
+        <v>1204</v>
+      </c>
+      <c r="E166" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F166" t="s">
+        <v>54</v>
+      </c>
+      <c r="G166">
+        <v>4.22</v>
+      </c>
+      <c r="H166">
+        <v>4.22</v>
+      </c>
+      <c r="I166" t="s">
+        <v>55</v>
+      </c>
+      <c r="O166" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>56</v>
+      </c>
+      <c r="R166" t="s">
+        <v>57</v>
+      </c>
+      <c r="T166" t="s">
+        <v>58</v>
+      </c>
+      <c r="U166" t="s">
+        <v>59</v>
+      </c>
+      <c r="V166" t="s">
+        <v>60</v>
+      </c>
+      <c r="W166" t="s">
+        <v>61</v>
+      </c>
+      <c r="X166">
+        <v>2103708</v>
+      </c>
+      <c r="Y166" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z166" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA166">
+        <v>22</v>
+      </c>
+      <c r="AB166" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD166" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE166" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF166" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG166">
+        <v>1</v>
+      </c>
+      <c r="AH166" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL166" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM166" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN166" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO166" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP166">
+        <v>1204</v>
+      </c>
+      <c r="AQ166" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR166">
+        <v>114717</v>
+      </c>
+      <c r="AU166" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV166" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX166" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY166">
+        <v>631110</v>
+      </c>
+      <c r="AZ166">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="167" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>52</v>
+      </c>
+      <c r="B167" t="s">
+        <v>53</v>
+      </c>
+      <c r="C167">
+        <v>24001160</v>
+      </c>
+      <c r="D167">
+        <v>1204</v>
+      </c>
+      <c r="E167" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F167" t="s">
+        <v>54</v>
+      </c>
+      <c r="G167">
+        <v>85.65</v>
+      </c>
+      <c r="H167">
+        <v>85.65</v>
+      </c>
+      <c r="I167" t="s">
+        <v>55</v>
+      </c>
+      <c r="O167" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>56</v>
+      </c>
+      <c r="R167" t="s">
+        <v>57</v>
+      </c>
+      <c r="T167" t="s">
+        <v>58</v>
+      </c>
+      <c r="U167" t="s">
+        <v>59</v>
+      </c>
+      <c r="V167" t="s">
+        <v>60</v>
+      </c>
+      <c r="W167" t="s">
+        <v>61</v>
+      </c>
+      <c r="X167">
+        <v>2103708</v>
+      </c>
+      <c r="Y167" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z167" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA167">
+        <v>24</v>
+      </c>
+      <c r="AB167" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD167" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE167" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF167" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG167">
+        <v>1</v>
+      </c>
+      <c r="AH167" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL167" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM167" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN167" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO167" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP167">
+        <v>1204</v>
+      </c>
+      <c r="AQ167" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR167">
+        <v>143865</v>
+      </c>
+      <c r="AU167" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV167" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX167" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY167">
+        <v>631110</v>
+      </c>
+      <c r="AZ167">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="168" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>52</v>
+      </c>
+      <c r="B168" t="s">
+        <v>53</v>
+      </c>
+      <c r="C168">
+        <v>24001160</v>
+      </c>
+      <c r="D168">
+        <v>1204</v>
+      </c>
+      <c r="E168" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F168" t="s">
+        <v>54</v>
+      </c>
+      <c r="G168">
+        <v>56.33</v>
+      </c>
+      <c r="H168">
+        <v>56.33</v>
+      </c>
+      <c r="I168" t="s">
+        <v>55</v>
+      </c>
+      <c r="O168" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>56</v>
+      </c>
+      <c r="R168" t="s">
+        <v>57</v>
+      </c>
+      <c r="T168" t="s">
+        <v>58</v>
+      </c>
+      <c r="U168" t="s">
+        <v>59</v>
+      </c>
+      <c r="V168" t="s">
+        <v>60</v>
+      </c>
+      <c r="W168" t="s">
+        <v>61</v>
+      </c>
+      <c r="X168">
+        <v>2103708</v>
+      </c>
+      <c r="Y168" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z168" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA168">
+        <v>26</v>
+      </c>
+      <c r="AB168" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD168" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE168" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF168" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG168">
+        <v>1</v>
+      </c>
+      <c r="AH168" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL168" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM168" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN168" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO168" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP168">
+        <v>1204</v>
+      </c>
+      <c r="AQ168" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR168">
+        <v>101485</v>
+      </c>
+      <c r="AU168" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV168" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX168" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY168">
+        <v>631110</v>
+      </c>
+      <c r="AZ168">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="169" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>52</v>
+      </c>
+      <c r="B169" t="s">
+        <v>53</v>
+      </c>
+      <c r="C169">
+        <v>24001160</v>
+      </c>
+      <c r="D169">
+        <v>1204</v>
+      </c>
+      <c r="E169" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F169" t="s">
+        <v>54</v>
+      </c>
+      <c r="G169">
+        <v>3.86</v>
+      </c>
+      <c r="H169">
+        <v>3.86</v>
+      </c>
+      <c r="I169" t="s">
+        <v>55</v>
+      </c>
+      <c r="O169" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>56</v>
+      </c>
+      <c r="R169" t="s">
+        <v>57</v>
+      </c>
+      <c r="T169" t="s">
+        <v>58</v>
+      </c>
+      <c r="U169" t="s">
+        <v>59</v>
+      </c>
+      <c r="V169" t="s">
+        <v>60</v>
+      </c>
+      <c r="W169" t="s">
+        <v>61</v>
+      </c>
+      <c r="X169">
+        <v>2103708</v>
+      </c>
+      <c r="Y169" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z169" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA169">
+        <v>28</v>
+      </c>
+      <c r="AB169" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD169" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE169" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF169" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG169">
+        <v>1</v>
+      </c>
+      <c r="AH169" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL169" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM169" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN169" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO169" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP169">
+        <v>1204</v>
+      </c>
+      <c r="AQ169" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR169">
+        <v>205692</v>
+      </c>
+      <c r="AU169" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV169" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX169" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY169">
+        <v>631110</v>
+      </c>
+      <c r="AZ169">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="170" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>52</v>
+      </c>
+      <c r="B170" t="s">
+        <v>53</v>
+      </c>
+      <c r="C170">
+        <v>24001160</v>
+      </c>
+      <c r="D170">
+        <v>1204</v>
+      </c>
+      <c r="E170" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F170" t="s">
+        <v>54</v>
+      </c>
+      <c r="G170">
+        <v>164.4</v>
+      </c>
+      <c r="H170">
+        <v>164.4</v>
+      </c>
+      <c r="I170" t="s">
+        <v>55</v>
+      </c>
+      <c r="O170" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>56</v>
+      </c>
+      <c r="R170" t="s">
+        <v>57</v>
+      </c>
+      <c r="T170" t="s">
+        <v>58</v>
+      </c>
+      <c r="U170" t="s">
+        <v>59</v>
+      </c>
+      <c r="V170" t="s">
+        <v>60</v>
+      </c>
+      <c r="W170" t="s">
+        <v>61</v>
+      </c>
+      <c r="X170">
+        <v>2103708</v>
+      </c>
+      <c r="Y170" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z170" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA170">
+        <v>30</v>
+      </c>
+      <c r="AB170" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD170" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE170" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF170" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG170">
+        <v>1</v>
+      </c>
+      <c r="AH170" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL170" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM170" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN170" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO170" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP170">
+        <v>1204</v>
+      </c>
+      <c r="AQ170" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR170">
+        <v>138787</v>
+      </c>
+      <c r="AU170" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV170" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX170" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY170">
+        <v>631110</v>
+      </c>
+      <c r="AZ170">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="171" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>52</v>
+      </c>
+      <c r="B171" t="s">
+        <v>53</v>
+      </c>
+      <c r="C171">
+        <v>24001160</v>
+      </c>
+      <c r="D171">
+        <v>1204</v>
+      </c>
+      <c r="E171" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F171" t="s">
+        <v>54</v>
+      </c>
+      <c r="G171">
+        <v>224.38</v>
+      </c>
+      <c r="H171">
+        <v>224.38</v>
+      </c>
+      <c r="I171" t="s">
+        <v>55</v>
+      </c>
+      <c r="O171" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>56</v>
+      </c>
+      <c r="R171" t="s">
+        <v>57</v>
+      </c>
+      <c r="T171" t="s">
+        <v>58</v>
+      </c>
+      <c r="U171" t="s">
+        <v>59</v>
+      </c>
+      <c r="V171" t="s">
+        <v>60</v>
+      </c>
+      <c r="W171" t="s">
+        <v>61</v>
+      </c>
+      <c r="X171">
+        <v>2103708</v>
+      </c>
+      <c r="Y171" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z171" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA171">
+        <v>32</v>
+      </c>
+      <c r="AB171" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD171" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE171" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF171" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG171">
+        <v>1</v>
+      </c>
+      <c r="AH171" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL171" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM171" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN171" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO171" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP171">
+        <v>1204</v>
+      </c>
+      <c r="AQ171" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR171">
+        <v>221866</v>
+      </c>
+      <c r="AU171" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV171" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX171" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY171">
+        <v>631110</v>
+      </c>
+      <c r="AZ171">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="172" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>52</v>
+      </c>
+      <c r="B172" t="s">
+        <v>53</v>
+      </c>
+      <c r="C172">
+        <v>24001167</v>
+      </c>
+      <c r="D172">
+        <v>1204</v>
+      </c>
+      <c r="E172" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F172" t="s">
+        <v>70</v>
+      </c>
+      <c r="G172">
+        <v>1.89</v>
+      </c>
+      <c r="H172">
+        <v>1.89</v>
+      </c>
+      <c r="I172" t="s">
+        <v>55</v>
+      </c>
+      <c r="O172" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>56</v>
+      </c>
+      <c r="R172" t="s">
+        <v>57</v>
+      </c>
+      <c r="T172" t="s">
+        <v>58</v>
+      </c>
+      <c r="U172" t="s">
+        <v>59</v>
+      </c>
+      <c r="V172" t="s">
+        <v>60</v>
+      </c>
+      <c r="W172" t="s">
+        <v>61</v>
+      </c>
+      <c r="X172">
+        <v>2104062</v>
+      </c>
+      <c r="Y172" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z172" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA172">
+        <v>2</v>
+      </c>
+      <c r="AB172" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD172" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE172" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF172" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG172">
+        <v>12</v>
+      </c>
+      <c r="AH172" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL172" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM172" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN172" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO172" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP172">
+        <v>1204</v>
+      </c>
+      <c r="AQ172" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR172">
+        <v>89712</v>
+      </c>
+      <c r="AU172" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV172" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX172" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY172">
+        <v>631110</v>
+      </c>
+      <c r="AZ172">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="173" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>52</v>
+      </c>
+      <c r="B173" t="s">
+        <v>53</v>
+      </c>
+      <c r="C173">
+        <v>24001167</v>
+      </c>
+      <c r="D173">
+        <v>1204</v>
+      </c>
+      <c r="E173" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F173" t="s">
+        <v>70</v>
+      </c>
+      <c r="G173">
+        <v>11.6</v>
+      </c>
+      <c r="H173">
+        <v>11.6</v>
+      </c>
+      <c r="I173" t="s">
+        <v>55</v>
+      </c>
+      <c r="O173" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>56</v>
+      </c>
+      <c r="R173" t="s">
+        <v>57</v>
+      </c>
+      <c r="T173" t="s">
+        <v>58</v>
+      </c>
+      <c r="U173" t="s">
+        <v>59</v>
+      </c>
+      <c r="V173" t="s">
+        <v>60</v>
+      </c>
+      <c r="W173" t="s">
+        <v>61</v>
+      </c>
+      <c r="X173">
+        <v>2104062</v>
+      </c>
+      <c r="Y173" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z173" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA173">
+        <v>4</v>
+      </c>
+      <c r="AB173" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD173" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE173" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF173" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG173">
+        <v>35</v>
+      </c>
+      <c r="AH173" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL173" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM173" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN173" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO173" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP173">
+        <v>1204</v>
+      </c>
+      <c r="AQ173" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR173">
+        <v>91011</v>
+      </c>
+      <c r="AU173" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV173" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX173" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY173">
+        <v>631110</v>
+      </c>
+      <c r="AZ173">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="174" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>52</v>
+      </c>
+      <c r="B174" t="s">
+        <v>53</v>
+      </c>
+      <c r="C174">
+        <v>24001167</v>
+      </c>
+      <c r="D174">
+        <v>1204</v>
+      </c>
+      <c r="E174" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F174" t="s">
+        <v>70</v>
+      </c>
+      <c r="G174">
+        <v>1.64</v>
+      </c>
+      <c r="H174">
+        <v>1.64</v>
+      </c>
+      <c r="I174" t="s">
+        <v>55</v>
+      </c>
+      <c r="O174" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>56</v>
+      </c>
+      <c r="R174" t="s">
+        <v>57</v>
+      </c>
+      <c r="T174" t="s">
+        <v>58</v>
+      </c>
+      <c r="U174" t="s">
+        <v>59</v>
+      </c>
+      <c r="V174" t="s">
+        <v>60</v>
+      </c>
+      <c r="W174" t="s">
+        <v>61</v>
+      </c>
+      <c r="X174">
+        <v>2104062</v>
+      </c>
+      <c r="Y174" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z174" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA174">
+        <v>6</v>
+      </c>
+      <c r="AB174" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD174" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE174" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF174" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG174">
+        <v>11</v>
+      </c>
+      <c r="AH174" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL174" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM174" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN174" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO174" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP174">
+        <v>1204</v>
+      </c>
+      <c r="AQ174" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR174">
+        <v>144854</v>
+      </c>
+      <c r="AU174" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV174" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX174" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY174">
+        <v>631110</v>
+      </c>
+      <c r="AZ174">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="175" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>52</v>
+      </c>
+      <c r="B175" t="s">
+        <v>53</v>
+      </c>
+      <c r="C175">
+        <v>24001168</v>
+      </c>
+      <c r="D175">
+        <v>1204</v>
+      </c>
+      <c r="E175" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F175" t="s">
+        <v>66</v>
+      </c>
+      <c r="G175">
+        <v>7.55</v>
+      </c>
+      <c r="H175">
+        <v>7.55</v>
+      </c>
+      <c r="I175" t="s">
+        <v>55</v>
+      </c>
+      <c r="O175" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>56</v>
+      </c>
+      <c r="R175" t="s">
+        <v>57</v>
+      </c>
+      <c r="T175" t="s">
+        <v>58</v>
+      </c>
+      <c r="U175" t="s">
+        <v>59</v>
+      </c>
+      <c r="V175" t="s">
+        <v>60</v>
+      </c>
+      <c r="W175" t="s">
+        <v>61</v>
+      </c>
+      <c r="X175">
+        <v>2104063</v>
+      </c>
+      <c r="Y175" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z175" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA175">
+        <v>2</v>
+      </c>
+      <c r="AB175" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD175" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE175" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF175" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG175">
+        <v>1</v>
+      </c>
+      <c r="AH175" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL175" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM175" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN175" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO175" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP175">
+        <v>1204</v>
+      </c>
+      <c r="AQ175" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR175">
+        <v>227112</v>
+      </c>
+      <c r="AU175" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV175" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX175" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY175">
+        <v>631110</v>
+      </c>
+      <c r="AZ175">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="176" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>52</v>
+      </c>
+      <c r="B176" t="s">
+        <v>53</v>
+      </c>
+      <c r="C176">
+        <v>24001169</v>
+      </c>
+      <c r="D176">
+        <v>1204</v>
+      </c>
+      <c r="E176" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F176" t="s">
+        <v>54</v>
+      </c>
+      <c r="G176">
+        <v>0.48</v>
+      </c>
+      <c r="H176">
+        <v>0.48</v>
+      </c>
+      <c r="I176" t="s">
+        <v>55</v>
+      </c>
+      <c r="O176" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>56</v>
+      </c>
+      <c r="R176" t="s">
+        <v>57</v>
+      </c>
+      <c r="T176" t="s">
+        <v>58</v>
+      </c>
+      <c r="U176" t="s">
+        <v>59</v>
+      </c>
+      <c r="V176" t="s">
+        <v>60</v>
+      </c>
+      <c r="W176" t="s">
+        <v>61</v>
+      </c>
+      <c r="X176">
+        <v>2104064</v>
+      </c>
+      <c r="Y176" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z176" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA176">
+        <v>2</v>
+      </c>
+      <c r="AB176" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD176" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE176" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF176" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG176">
+        <v>1</v>
+      </c>
+      <c r="AH176" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL176" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM176" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN176" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO176" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP176">
+        <v>1204</v>
+      </c>
+      <c r="AQ176" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR176">
+        <v>232942</v>
+      </c>
+      <c r="AU176" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV176" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX176" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY176">
+        <v>631110</v>
+      </c>
+      <c r="AZ176">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="177" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>52</v>
+      </c>
+      <c r="B177" t="s">
+        <v>53</v>
+      </c>
+      <c r="C177">
+        <v>24001169</v>
+      </c>
+      <c r="D177">
+        <v>1204</v>
+      </c>
+      <c r="E177" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F177" t="s">
+        <v>54</v>
+      </c>
+      <c r="G177">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="H177">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="I177" t="s">
+        <v>55</v>
+      </c>
+      <c r="O177" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>56</v>
+      </c>
+      <c r="R177" t="s">
+        <v>57</v>
+      </c>
+      <c r="T177" t="s">
+        <v>58</v>
+      </c>
+      <c r="U177" t="s">
+        <v>59</v>
+      </c>
+      <c r="V177" t="s">
+        <v>60</v>
+      </c>
+      <c r="W177" t="s">
+        <v>61</v>
+      </c>
+      <c r="X177">
+        <v>2104064</v>
+      </c>
+      <c r="Y177" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z177" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA177">
+        <v>4</v>
+      </c>
+      <c r="AB177" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD177" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE177" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF177" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG177">
+        <v>1</v>
+      </c>
+      <c r="AH177" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL177" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM177" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN177" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO177" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP177">
+        <v>1204</v>
+      </c>
+      <c r="AQ177" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR177">
+        <v>207987</v>
+      </c>
+      <c r="AU177" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV177" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX177" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY177">
+        <v>631110</v>
+      </c>
+      <c r="AZ177">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="178" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>52</v>
+      </c>
+      <c r="B178" t="s">
+        <v>53</v>
+      </c>
+      <c r="C178">
+        <v>24001169</v>
+      </c>
+      <c r="D178">
+        <v>1204</v>
+      </c>
+      <c r="E178" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F178" t="s">
+        <v>54</v>
+      </c>
+      <c r="G178">
+        <v>23.33</v>
+      </c>
+      <c r="H178">
+        <v>23.33</v>
+      </c>
+      <c r="I178" t="s">
+        <v>55</v>
+      </c>
+      <c r="O178" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>56</v>
+      </c>
+      <c r="R178" t="s">
+        <v>57</v>
+      </c>
+      <c r="T178" t="s">
+        <v>58</v>
+      </c>
+      <c r="U178" t="s">
+        <v>59</v>
+      </c>
+      <c r="V178" t="s">
+        <v>60</v>
+      </c>
+      <c r="W178" t="s">
+        <v>61</v>
+      </c>
+      <c r="X178">
+        <v>2104064</v>
+      </c>
+      <c r="Y178" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z178" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA178">
+        <v>6</v>
+      </c>
+      <c r="AB178" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD178" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE178" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF178" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG178">
+        <v>1</v>
+      </c>
+      <c r="AH178" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL178" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM178" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN178" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO178" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP178">
+        <v>1204</v>
+      </c>
+      <c r="AQ178" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR178">
+        <v>96020</v>
+      </c>
+      <c r="AU178" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV178" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX178" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY178">
+        <v>631110</v>
+      </c>
+      <c r="AZ178">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="179" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>52</v>
+      </c>
+      <c r="B179" t="s">
+        <v>53</v>
+      </c>
+      <c r="C179">
+        <v>24001169</v>
+      </c>
+      <c r="D179">
+        <v>1204</v>
+      </c>
+      <c r="E179" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F179" t="s">
+        <v>54</v>
+      </c>
+      <c r="G179">
+        <v>0.63</v>
+      </c>
+      <c r="H179">
+        <v>0.63</v>
+      </c>
+      <c r="I179" t="s">
+        <v>55</v>
+      </c>
+      <c r="O179" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>56</v>
+      </c>
+      <c r="R179" t="s">
+        <v>57</v>
+      </c>
+      <c r="T179" t="s">
+        <v>58</v>
+      </c>
+      <c r="U179" t="s">
+        <v>59</v>
+      </c>
+      <c r="V179" t="s">
+        <v>60</v>
+      </c>
+      <c r="W179" t="s">
+        <v>61</v>
+      </c>
+      <c r="X179">
+        <v>2104064</v>
+      </c>
+      <c r="Y179" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z179" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA179">
+        <v>8</v>
+      </c>
+      <c r="AB179" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD179" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE179" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF179" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG179">
+        <v>1</v>
+      </c>
+      <c r="AH179" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL179" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM179" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN179" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO179" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP179">
+        <v>1204</v>
+      </c>
+      <c r="AQ179" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR179">
+        <v>90167</v>
+      </c>
+      <c r="AU179" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV179" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX179" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY179">
+        <v>631110</v>
+      </c>
+      <c r="AZ179">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="180" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>52</v>
+      </c>
+      <c r="B180" t="s">
+        <v>53</v>
+      </c>
+      <c r="C180">
+        <v>24001169</v>
+      </c>
+      <c r="D180">
+        <v>1204</v>
+      </c>
+      <c r="E180" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F180" t="s">
+        <v>54</v>
+      </c>
+      <c r="G180">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H180">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I180" t="s">
+        <v>55</v>
+      </c>
+      <c r="O180" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>56</v>
+      </c>
+      <c r="R180" t="s">
+        <v>57</v>
+      </c>
+      <c r="T180" t="s">
+        <v>58</v>
+      </c>
+      <c r="U180" t="s">
+        <v>59</v>
+      </c>
+      <c r="V180" t="s">
+        <v>60</v>
+      </c>
+      <c r="W180" t="s">
+        <v>61</v>
+      </c>
+      <c r="X180">
+        <v>2104064</v>
+      </c>
+      <c r="Y180" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z180" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA180">
+        <v>10</v>
+      </c>
+      <c r="AB180" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD180" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE180" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF180" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG180">
+        <v>1</v>
+      </c>
+      <c r="AH180" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL180" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM180" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN180" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO180" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP180">
+        <v>1204</v>
+      </c>
+      <c r="AQ180" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR180">
+        <v>140249</v>
+      </c>
+      <c r="AU180" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV180" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX180" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY180">
+        <v>631110</v>
+      </c>
+      <c r="AZ180">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="181" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>52</v>
+      </c>
+      <c r="B181" t="s">
+        <v>53</v>
+      </c>
+      <c r="C181">
+        <v>24001169</v>
+      </c>
+      <c r="D181">
+        <v>1204</v>
+      </c>
+      <c r="E181" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F181" t="s">
+        <v>54</v>
+      </c>
+      <c r="G181">
+        <v>0.66</v>
+      </c>
+      <c r="H181">
+        <v>0.66</v>
+      </c>
+      <c r="I181" t="s">
+        <v>55</v>
+      </c>
+      <c r="O181" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>56</v>
+      </c>
+      <c r="R181" t="s">
+        <v>57</v>
+      </c>
+      <c r="T181" t="s">
+        <v>58</v>
+      </c>
+      <c r="U181" t="s">
+        <v>59</v>
+      </c>
+      <c r="V181" t="s">
+        <v>60</v>
+      </c>
+      <c r="W181" t="s">
+        <v>61</v>
+      </c>
+      <c r="X181">
+        <v>2104064</v>
+      </c>
+      <c r="Y181" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z181" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA181">
+        <v>12</v>
+      </c>
+      <c r="AB181" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD181" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE181" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF181" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG181">
+        <v>1</v>
+      </c>
+      <c r="AH181" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL181" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM181" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN181" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO181" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP181">
+        <v>1204</v>
+      </c>
+      <c r="AQ181" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR181">
+        <v>112854</v>
+      </c>
+      <c r="AU181" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV181" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX181" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY181">
+        <v>631110</v>
+      </c>
+      <c r="AZ181">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="182" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>52</v>
+      </c>
+      <c r="B182" t="s">
+        <v>53</v>
+      </c>
+      <c r="C182">
+        <v>24001169</v>
+      </c>
+      <c r="D182">
+        <v>1204</v>
+      </c>
+      <c r="E182" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F182" t="s">
+        <v>54</v>
+      </c>
+      <c r="G182">
+        <v>27.31</v>
+      </c>
+      <c r="H182">
+        <v>27.31</v>
+      </c>
+      <c r="I182" t="s">
+        <v>55</v>
+      </c>
+      <c r="O182" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>56</v>
+      </c>
+      <c r="R182" t="s">
+        <v>57</v>
+      </c>
+      <c r="T182" t="s">
+        <v>58</v>
+      </c>
+      <c r="U182" t="s">
+        <v>59</v>
+      </c>
+      <c r="V182" t="s">
+        <v>60</v>
+      </c>
+      <c r="W182" t="s">
+        <v>61</v>
+      </c>
+      <c r="X182">
+        <v>2104064</v>
+      </c>
+      <c r="Y182" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z182" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA182">
+        <v>14</v>
+      </c>
+      <c r="AB182" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD182" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE182" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF182" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG182">
+        <v>1</v>
+      </c>
+      <c r="AH182" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL182" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM182" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN182" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO182" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP182">
+        <v>1204</v>
+      </c>
+      <c r="AQ182" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR182">
+        <v>266020</v>
+      </c>
+      <c r="AU182" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV182" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX182" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY182">
+        <v>631110</v>
+      </c>
+      <c r="AZ182">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="183" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>52</v>
+      </c>
+      <c r="B183" t="s">
+        <v>53</v>
+      </c>
+      <c r="C183">
+        <v>24001169</v>
+      </c>
+      <c r="D183">
+        <v>1204</v>
+      </c>
+      <c r="E183" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F183" t="s">
+        <v>54</v>
+      </c>
+      <c r="G183">
+        <v>0.66</v>
+      </c>
+      <c r="H183">
+        <v>0.66</v>
+      </c>
+      <c r="I183" t="s">
+        <v>55</v>
+      </c>
+      <c r="O183" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>56</v>
+      </c>
+      <c r="R183" t="s">
+        <v>57</v>
+      </c>
+      <c r="T183" t="s">
+        <v>58</v>
+      </c>
+      <c r="U183" t="s">
+        <v>59</v>
+      </c>
+      <c r="V183" t="s">
+        <v>60</v>
+      </c>
+      <c r="W183" t="s">
+        <v>61</v>
+      </c>
+      <c r="X183">
+        <v>2104064</v>
+      </c>
+      <c r="Y183" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z183" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA183">
+        <v>16</v>
+      </c>
+      <c r="AB183" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD183" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE183" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF183" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG183">
+        <v>1</v>
+      </c>
+      <c r="AH183" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL183" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM183" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN183" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO183" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP183">
+        <v>1204</v>
+      </c>
+      <c r="AQ183" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR183">
+        <v>112854</v>
+      </c>
+      <c r="AU183" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV183" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX183" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY183">
+        <v>631110</v>
+      </c>
+      <c r="AZ183">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="184" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>52</v>
+      </c>
+      <c r="B184" t="s">
+        <v>53</v>
+      </c>
+      <c r="C184">
+        <v>24001169</v>
+      </c>
+      <c r="D184">
+        <v>1204</v>
+      </c>
+      <c r="E184" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F184" t="s">
+        <v>54</v>
+      </c>
+      <c r="G184">
+        <v>0.63</v>
+      </c>
+      <c r="H184">
+        <v>0.63</v>
+      </c>
+      <c r="I184" t="s">
+        <v>55</v>
+      </c>
+      <c r="O184" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>56</v>
+      </c>
+      <c r="R184" t="s">
+        <v>57</v>
+      </c>
+      <c r="T184" t="s">
+        <v>58</v>
+      </c>
+      <c r="U184" t="s">
+        <v>59</v>
+      </c>
+      <c r="V184" t="s">
+        <v>60</v>
+      </c>
+      <c r="W184" t="s">
+        <v>61</v>
+      </c>
+      <c r="X184">
+        <v>2104064</v>
+      </c>
+      <c r="Y184" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z184" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA184">
+        <v>18</v>
+      </c>
+      <c r="AB184" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD184" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE184" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF184" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG184">
+        <v>1</v>
+      </c>
+      <c r="AH184" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL184" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM184" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN184" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO184" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP184">
+        <v>1204</v>
+      </c>
+      <c r="AQ184" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR184">
+        <v>90167</v>
+      </c>
+      <c r="AU184" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV184" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX184" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY184">
+        <v>631110</v>
+      </c>
+      <c r="AZ184">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="185" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>52</v>
+      </c>
+      <c r="B185" t="s">
+        <v>53</v>
+      </c>
+      <c r="C185">
+        <v>24001169</v>
+      </c>
+      <c r="D185">
+        <v>1204</v>
+      </c>
+      <c r="E185" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F185" t="s">
+        <v>54</v>
+      </c>
+      <c r="G185">
+        <v>0.66</v>
+      </c>
+      <c r="H185">
+        <v>0.66</v>
+      </c>
+      <c r="I185" t="s">
+        <v>55</v>
+      </c>
+      <c r="O185" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>56</v>
+      </c>
+      <c r="R185" t="s">
+        <v>57</v>
+      </c>
+      <c r="T185" t="s">
+        <v>58</v>
+      </c>
+      <c r="U185" t="s">
+        <v>59</v>
+      </c>
+      <c r="V185" t="s">
+        <v>60</v>
+      </c>
+      <c r="W185" t="s">
+        <v>61</v>
+      </c>
+      <c r="X185">
+        <v>2104064</v>
+      </c>
+      <c r="Y185" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z185" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA185">
+        <v>20</v>
+      </c>
+      <c r="AB185" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD185" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE185" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF185" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG185">
+        <v>1</v>
+      </c>
+      <c r="AH185" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL185" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM185" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN185" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO185" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP185">
+        <v>1204</v>
+      </c>
+      <c r="AQ185" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR185">
+        <v>112854</v>
+      </c>
+      <c r="AU185" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV185" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX185" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY185">
+        <v>631110</v>
+      </c>
+      <c r="AZ185">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="186" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>52</v>
+      </c>
+      <c r="B186" t="s">
+        <v>53</v>
+      </c>
+      <c r="C186">
+        <v>24001170</v>
+      </c>
+      <c r="D186">
+        <v>1204</v>
+      </c>
+      <c r="E186" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F186" t="s">
+        <v>66</v>
+      </c>
+      <c r="G186">
+        <v>6.89</v>
+      </c>
+      <c r="H186">
+        <v>6.89</v>
+      </c>
+      <c r="I186" t="s">
+        <v>55</v>
+      </c>
+      <c r="O186" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>56</v>
+      </c>
+      <c r="R186" t="s">
+        <v>57</v>
+      </c>
+      <c r="T186" t="s">
+        <v>58</v>
+      </c>
+      <c r="U186" t="s">
+        <v>59</v>
+      </c>
+      <c r="V186" t="s">
+        <v>60</v>
+      </c>
+      <c r="W186" t="s">
+        <v>61</v>
+      </c>
+      <c r="X186">
+        <v>2104064</v>
+      </c>
+      <c r="Y186" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z186" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA186">
+        <v>2</v>
+      </c>
+      <c r="AB186" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD186" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE186" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF186" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG186">
+        <v>1</v>
+      </c>
+      <c r="AH186" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL186" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM186" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN186" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO186" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP186">
+        <v>1204</v>
+      </c>
+      <c r="AQ186" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR186">
+        <v>279991</v>
+      </c>
+      <c r="AU186" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV186" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX186" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY186">
+        <v>631110</v>
+      </c>
+      <c r="AZ186">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="187" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>52</v>
+      </c>
+      <c r="B187" t="s">
+        <v>53</v>
+      </c>
+      <c r="C187">
+        <v>24001171</v>
+      </c>
+      <c r="D187">
+        <v>1204</v>
+      </c>
+      <c r="E187" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F187" t="s">
+        <v>66</v>
+      </c>
+      <c r="G187">
+        <v>133.43</v>
+      </c>
+      <c r="H187">
+        <v>133.43</v>
+      </c>
+      <c r="I187" t="s">
+        <v>55</v>
+      </c>
+      <c r="O187" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>56</v>
+      </c>
+      <c r="R187" t="s">
+        <v>57</v>
+      </c>
+      <c r="T187" t="s">
+        <v>58</v>
+      </c>
+      <c r="U187" t="s">
+        <v>59</v>
+      </c>
+      <c r="V187" t="s">
+        <v>60</v>
+      </c>
+      <c r="W187" t="s">
+        <v>61</v>
+      </c>
+      <c r="X187">
+        <v>2104160</v>
+      </c>
+      <c r="Y187" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z187" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA187">
+        <v>2</v>
+      </c>
+      <c r="AB187" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD187" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE187" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF187" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG187">
+        <v>6</v>
+      </c>
+      <c r="AH187" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL187" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM187" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN187" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO187" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP187">
+        <v>1204</v>
+      </c>
+      <c r="AQ187" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR187">
+        <v>247146</v>
+      </c>
+      <c r="AU187" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV187" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX187" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY187">
+        <v>631110</v>
+      </c>
+      <c r="AZ187">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="188" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>52</v>
+      </c>
+      <c r="B188" t="s">
+        <v>53</v>
+      </c>
+      <c r="C188">
+        <v>24001171</v>
+      </c>
+      <c r="D188">
+        <v>1204</v>
+      </c>
+      <c r="E188" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F188" t="s">
+        <v>66</v>
+      </c>
+      <c r="G188">
+        <v>20.67</v>
+      </c>
+      <c r="H188">
+        <v>20.67</v>
+      </c>
+      <c r="I188" t="s">
+        <v>55</v>
+      </c>
+      <c r="O188" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>56</v>
+      </c>
+      <c r="R188" t="s">
+        <v>57</v>
+      </c>
+      <c r="T188" t="s">
+        <v>58</v>
+      </c>
+      <c r="U188" t="s">
+        <v>59</v>
+      </c>
+      <c r="V188" t="s">
+        <v>60</v>
+      </c>
+      <c r="W188" t="s">
+        <v>61</v>
+      </c>
+      <c r="X188">
+        <v>2104160</v>
+      </c>
+      <c r="Y188" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z188" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA188">
+        <v>4</v>
+      </c>
+      <c r="AB188" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD188" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE188" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF188" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG188">
+        <v>3</v>
+      </c>
+      <c r="AH188" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL188" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM188" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN188" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO188" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP188">
+        <v>1204</v>
+      </c>
+      <c r="AQ188" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR188">
+        <v>279991</v>
+      </c>
+      <c r="AU188" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV188" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX188" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY188">
+        <v>631110</v>
+      </c>
+      <c r="AZ188">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="189" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>52</v>
+      </c>
+      <c r="B189" t="s">
+        <v>53</v>
+      </c>
+      <c r="C189">
+        <v>24001172</v>
+      </c>
+      <c r="D189">
+        <v>1204</v>
+      </c>
+      <c r="E189" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F189" t="s">
+        <v>70</v>
+      </c>
+      <c r="G189">
+        <v>0.22</v>
+      </c>
+      <c r="H189">
+        <v>0.22</v>
+      </c>
+      <c r="I189" t="s">
+        <v>55</v>
+      </c>
+      <c r="O189" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>56</v>
+      </c>
+      <c r="R189" t="s">
+        <v>57</v>
+      </c>
+      <c r="T189" t="s">
+        <v>58</v>
+      </c>
+      <c r="U189" t="s">
+        <v>59</v>
+      </c>
+      <c r="V189" t="s">
+        <v>60</v>
+      </c>
+      <c r="W189" t="s">
+        <v>61</v>
+      </c>
+      <c r="X189">
+        <v>2104388</v>
+      </c>
+      <c r="Y189" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z189" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA189">
+        <v>2</v>
+      </c>
+      <c r="AB189" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD189" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE189" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF189" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG189">
+        <v>2</v>
+      </c>
+      <c r="AH189" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL189" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM189" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN189" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO189" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP189">
+        <v>1204</v>
+      </c>
+      <c r="AQ189" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR189">
+        <v>90435</v>
+      </c>
+      <c r="AU189" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV189" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX189" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY189">
+        <v>631110</v>
+      </c>
+      <c r="AZ189">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="190" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>52</v>
+      </c>
+      <c r="B190" t="s">
+        <v>53</v>
+      </c>
+      <c r="C190">
+        <v>24001172</v>
+      </c>
+      <c r="D190">
+        <v>1204</v>
+      </c>
+      <c r="E190" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F190" t="s">
+        <v>70</v>
+      </c>
+      <c r="G190">
+        <v>0.79</v>
+      </c>
+      <c r="H190">
+        <v>0.79</v>
+      </c>
+      <c r="I190" t="s">
+        <v>55</v>
+      </c>
+      <c r="O190" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>56</v>
+      </c>
+      <c r="R190" t="s">
+        <v>57</v>
+      </c>
+      <c r="T190" t="s">
+        <v>58</v>
+      </c>
+      <c r="U190" t="s">
+        <v>59</v>
+      </c>
+      <c r="V190" t="s">
+        <v>60</v>
+      </c>
+      <c r="W190" t="s">
+        <v>61</v>
+      </c>
+      <c r="X190">
+        <v>2104388</v>
+      </c>
+      <c r="Y190" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z190" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA190">
+        <v>4</v>
+      </c>
+      <c r="AB190" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD190" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE190" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF190" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG190">
+        <v>5</v>
+      </c>
+      <c r="AH190" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL190" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM190" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN190" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO190" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP190">
+        <v>1204</v>
+      </c>
+      <c r="AQ190" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR190">
+        <v>89712</v>
+      </c>
+      <c r="AU190" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV190" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX190" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY190">
+        <v>631110</v>
+      </c>
+      <c r="AZ190">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="191" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>52</v>
+      </c>
+      <c r="B191" t="s">
+        <v>53</v>
+      </c>
+      <c r="C191">
+        <v>24001172</v>
+      </c>
+      <c r="D191">
+        <v>1204</v>
+      </c>
+      <c r="E191" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F191" t="s">
+        <v>70</v>
+      </c>
+      <c r="G191">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="H191">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="I191" t="s">
+        <v>55</v>
+      </c>
+      <c r="O191" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>56</v>
+      </c>
+      <c r="R191" t="s">
+        <v>57</v>
+      </c>
+      <c r="T191" t="s">
+        <v>58</v>
+      </c>
+      <c r="U191" t="s">
+        <v>59</v>
+      </c>
+      <c r="V191" t="s">
+        <v>60</v>
+      </c>
+      <c r="W191" t="s">
+        <v>61</v>
+      </c>
+      <c r="X191">
+        <v>2104388</v>
+      </c>
+      <c r="Y191" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z191" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA191">
+        <v>6</v>
+      </c>
+      <c r="AB191" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD191" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE191" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF191" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG191">
+        <v>53</v>
+      </c>
+      <c r="AH191" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL191" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM191" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN191" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO191" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP191">
+        <v>1204</v>
+      </c>
+      <c r="AQ191" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR191">
+        <v>91011</v>
+      </c>
+      <c r="AU191" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV191" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX191" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY191">
+        <v>631110</v>
+      </c>
+      <c r="AZ191">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="192" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>52</v>
+      </c>
+      <c r="B192" t="s">
+        <v>53</v>
+      </c>
+      <c r="C192">
+        <v>24001172</v>
+      </c>
+      <c r="D192">
+        <v>1204</v>
+      </c>
+      <c r="E192" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F192" t="s">
+        <v>70</v>
+      </c>
+      <c r="G192">
+        <v>2.08</v>
+      </c>
+      <c r="H192">
+        <v>2.08</v>
+      </c>
+      <c r="I192" t="s">
+        <v>55</v>
+      </c>
+      <c r="O192" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>56</v>
+      </c>
+      <c r="R192" t="s">
+        <v>57</v>
+      </c>
+      <c r="T192" t="s">
+        <v>58</v>
+      </c>
+      <c r="U192" t="s">
+        <v>59</v>
+      </c>
+      <c r="V192" t="s">
+        <v>60</v>
+      </c>
+      <c r="W192" t="s">
+        <v>61</v>
+      </c>
+      <c r="X192">
+        <v>2104388</v>
+      </c>
+      <c r="Y192" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z192" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA192">
+        <v>8</v>
+      </c>
+      <c r="AB192" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD192" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE192" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF192" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG192">
+        <v>14</v>
+      </c>
+      <c r="AH192" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL192" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM192" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN192" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO192" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP192">
+        <v>1204</v>
+      </c>
+      <c r="AQ192" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR192">
+        <v>144854</v>
+      </c>
+      <c r="AU192" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV192" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX192" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY192">
+        <v>631110</v>
+      </c>
+      <c r="AZ192">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="193" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>52</v>
+      </c>
+      <c r="B193" t="s">
+        <v>53</v>
+      </c>
+      <c r="C193">
+        <v>24001094</v>
+      </c>
+      <c r="D193">
+        <v>1204</v>
+      </c>
+      <c r="E193" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F193" t="s">
+        <v>66</v>
+      </c>
+      <c r="G193">
+        <v>-7.12</v>
+      </c>
+      <c r="I193" t="s">
+        <v>55</v>
+      </c>
+      <c r="K193">
+        <v>-7.12</v>
+      </c>
+      <c r="O193" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>56</v>
+      </c>
+      <c r="R193" t="s">
+        <v>57</v>
+      </c>
+      <c r="T193" t="s">
+        <v>58</v>
+      </c>
+      <c r="U193" t="s">
+        <v>59</v>
+      </c>
+      <c r="V193" t="s">
+        <v>60</v>
+      </c>
+      <c r="W193" t="s">
+        <v>61</v>
+      </c>
+      <c r="X193">
+        <v>2095985</v>
+      </c>
+      <c r="Y193" s="1">
+        <v>45317</v>
+      </c>
+      <c r="Z193" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA193">
+        <v>2</v>
+      </c>
+      <c r="AB193" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD193" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE193" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF193" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG193">
+        <v>-1</v>
+      </c>
+      <c r="AH193" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL193" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM193" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN193" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO193" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP193">
+        <v>1204</v>
+      </c>
+      <c r="AQ193" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR193">
+        <v>225948</v>
+      </c>
+      <c r="AU193" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV193" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX193" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY193">
+        <v>631110</v>
+      </c>
+      <c r="AZ193">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="194" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>52</v>
+      </c>
+      <c r="B194" t="s">
+        <v>53</v>
+      </c>
+      <c r="C194">
+        <v>24001106</v>
+      </c>
+      <c r="D194">
+        <v>1204</v>
+      </c>
+      <c r="E194" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F194" t="s">
+        <v>66</v>
+      </c>
+      <c r="G194">
+        <v>-7.12</v>
+      </c>
+      <c r="I194" t="s">
+        <v>55</v>
+      </c>
+      <c r="K194">
+        <v>-7.12</v>
+      </c>
+      <c r="O194" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>56</v>
+      </c>
+      <c r="R194" t="s">
+        <v>57</v>
+      </c>
+      <c r="T194" t="s">
+        <v>58</v>
+      </c>
+      <c r="U194" t="s">
+        <v>59</v>
+      </c>
+      <c r="V194" t="s">
+        <v>60</v>
+      </c>
+      <c r="W194" t="s">
+        <v>61</v>
+      </c>
+      <c r="X194">
+        <v>2096270</v>
+      </c>
+      <c r="Y194" s="1">
+        <v>45320</v>
+      </c>
+      <c r="Z194" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA194">
+        <v>2</v>
+      </c>
+      <c r="AB194" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD194" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE194" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF194" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG194">
+        <v>-1</v>
+      </c>
+      <c r="AH194" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL194" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM194" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN194" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO194" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP194">
+        <v>1204</v>
+      </c>
+      <c r="AQ194" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR194">
+        <v>225948</v>
+      </c>
+      <c r="AU194" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV194" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX194" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY194">
+        <v>631110</v>
+      </c>
+      <c r="AZ194">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="195" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>52</v>
+      </c>
+      <c r="B195" t="s">
+        <v>53</v>
+      </c>
+      <c r="C195">
+        <v>24001113</v>
+      </c>
+      <c r="D195">
+        <v>1204</v>
+      </c>
+      <c r="E195" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F195" t="s">
+        <v>66</v>
+      </c>
+      <c r="G195">
+        <v>-7.12</v>
+      </c>
+      <c r="I195" t="s">
+        <v>55</v>
+      </c>
+      <c r="K195">
+        <v>-7.12</v>
+      </c>
+      <c r="O195" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>56</v>
+      </c>
+      <c r="R195" t="s">
+        <v>57</v>
+      </c>
+      <c r="T195" t="s">
+        <v>58</v>
+      </c>
+      <c r="U195" t="s">
+        <v>59</v>
+      </c>
+      <c r="V195" t="s">
+        <v>60</v>
+      </c>
+      <c r="W195" t="s">
+        <v>61</v>
+      </c>
+      <c r="X195">
+        <v>2096626</v>
+      </c>
+      <c r="Y195" s="1">
+        <v>45321</v>
+      </c>
+      <c r="Z195" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA195">
+        <v>2</v>
+      </c>
+      <c r="AB195" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD195" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE195" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF195" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG195">
+        <v>-1</v>
+      </c>
+      <c r="AH195" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL195" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM195" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN195" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO195" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP195">
+        <v>1204</v>
+      </c>
+      <c r="AQ195" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR195">
+        <v>225948</v>
+      </c>
+      <c r="AU195" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV195" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX195" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY195">
+        <v>631110</v>
+      </c>
+      <c r="AZ195">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="196" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>52</v>
+      </c>
+      <c r="B196" t="s">
+        <v>53</v>
+      </c>
+      <c r="C196">
+        <v>24001131</v>
+      </c>
+      <c r="D196">
+        <v>1204</v>
+      </c>
+      <c r="E196" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F196" t="s">
+        <v>66</v>
+      </c>
+      <c r="G196">
+        <v>-7.12</v>
+      </c>
+      <c r="I196" t="s">
+        <v>55</v>
+      </c>
+      <c r="K196">
+        <v>-7.12</v>
+      </c>
+      <c r="O196" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>56</v>
+      </c>
+      <c r="R196" t="s">
+        <v>57</v>
+      </c>
+      <c r="T196" t="s">
+        <v>58</v>
+      </c>
+      <c r="U196" t="s">
+        <v>59</v>
+      </c>
+      <c r="V196" t="s">
+        <v>60</v>
+      </c>
+      <c r="W196" t="s">
+        <v>61</v>
+      </c>
+      <c r="X196">
+        <v>2097786</v>
+      </c>
+      <c r="Y196" s="1">
+        <v>45327</v>
+      </c>
+      <c r="Z196" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA196">
+        <v>2</v>
+      </c>
+      <c r="AB196" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD196" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE196" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF196" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG196">
+        <v>-1</v>
+      </c>
+      <c r="AH196" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL196" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM196" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN196" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO196" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP196">
+        <v>1204</v>
+      </c>
+      <c r="AQ196" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR196">
+        <v>225948</v>
+      </c>
+      <c r="AU196" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV196" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX196" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY196">
+        <v>631110</v>
+      </c>
+      <c r="AZ196">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="197" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>52</v>
+      </c>
+      <c r="B197" t="s">
+        <v>53</v>
+      </c>
+      <c r="C197">
+        <v>24001133</v>
+      </c>
+      <c r="D197">
+        <v>1204</v>
+      </c>
+      <c r="E197" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F197" t="s">
+        <v>66</v>
+      </c>
+      <c r="G197">
+        <v>-7.12</v>
+      </c>
+      <c r="I197" t="s">
+        <v>55</v>
+      </c>
+      <c r="K197">
+        <v>-7.12</v>
+      </c>
+      <c r="O197" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>56</v>
+      </c>
+      <c r="R197" t="s">
+        <v>57</v>
+      </c>
+      <c r="T197" t="s">
+        <v>58</v>
+      </c>
+      <c r="U197" t="s">
+        <v>59</v>
+      </c>
+      <c r="V197" t="s">
+        <v>60</v>
+      </c>
+      <c r="W197" t="s">
+        <v>61</v>
+      </c>
+      <c r="X197">
+        <v>2098222</v>
+      </c>
+      <c r="Y197" s="1">
+        <v>45328</v>
+      </c>
+      <c r="Z197" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA197">
+        <v>2</v>
+      </c>
+      <c r="AB197" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD197" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE197" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF197" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG197">
+        <v>-1</v>
+      </c>
+      <c r="AH197" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL197" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM197" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN197" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO197" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP197">
+        <v>1204</v>
+      </c>
+      <c r="AQ197" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR197">
+        <v>225948</v>
+      </c>
+      <c r="AU197" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV197" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX197" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY197">
+        <v>631110</v>
+      </c>
+      <c r="AZ197">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="198" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>52</v>
+      </c>
+      <c r="B198" t="s">
+        <v>53</v>
+      </c>
+      <c r="C198">
+        <v>24001157</v>
+      </c>
+      <c r="D198">
+        <v>1204</v>
+      </c>
+      <c r="E198" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F198" t="s">
+        <v>66</v>
+      </c>
+      <c r="G198">
+        <v>-7.12</v>
+      </c>
+      <c r="I198" t="s">
+        <v>55</v>
+      </c>
+      <c r="K198">
+        <v>-7.12</v>
+      </c>
+      <c r="O198" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>56</v>
+      </c>
+      <c r="R198" t="s">
+        <v>57</v>
+      </c>
+      <c r="T198" t="s">
+        <v>58</v>
+      </c>
+      <c r="U198" t="s">
+        <v>59</v>
+      </c>
+      <c r="V198" t="s">
+        <v>60</v>
+      </c>
+      <c r="W198" t="s">
+        <v>61</v>
+      </c>
+      <c r="X198">
+        <v>2102757</v>
+      </c>
+      <c r="Y198" s="1">
+        <v>45338</v>
+      </c>
+      <c r="Z198" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA198">
+        <v>2</v>
+      </c>
+      <c r="AB198" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD198" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE198" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF198" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG198">
+        <v>-1</v>
+      </c>
+      <c r="AH198" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL198" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM198" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN198" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO198" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP198">
+        <v>1204</v>
+      </c>
+      <c r="AQ198" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR198">
+        <v>225948</v>
+      </c>
+      <c r="AU198" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV198" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX198" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY198">
+        <v>631110</v>
+      </c>
+      <c r="AZ198">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="199" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>52</v>
+      </c>
+      <c r="B199" t="s">
+        <v>53</v>
+      </c>
+      <c r="C199">
+        <v>24001173</v>
+      </c>
+      <c r="D199">
+        <v>1204</v>
+      </c>
+      <c r="E199" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F199" t="s">
+        <v>54</v>
+      </c>
+      <c r="G199">
+        <v>12.9</v>
+      </c>
+      <c r="H199">
+        <v>12.9</v>
+      </c>
+      <c r="I199" t="s">
+        <v>55</v>
+      </c>
+      <c r="O199" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>56</v>
+      </c>
+      <c r="R199" t="s">
+        <v>57</v>
+      </c>
+      <c r="T199" t="s">
+        <v>58</v>
+      </c>
+      <c r="U199" t="s">
+        <v>59</v>
+      </c>
+      <c r="V199" t="s">
+        <v>60</v>
+      </c>
+      <c r="W199" t="s">
+        <v>61</v>
+      </c>
+      <c r="X199">
+        <v>2104391</v>
+      </c>
+      <c r="Y199" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z199" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA199">
+        <v>2</v>
+      </c>
+      <c r="AB199" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD199" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE199" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF199" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG199">
+        <v>1</v>
+      </c>
+      <c r="AH199" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL199" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM199" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN199" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO199" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP199">
+        <v>1204</v>
+      </c>
+      <c r="AQ199" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR199">
+        <v>96021</v>
+      </c>
+      <c r="AU199" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV199" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX199" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY199">
+        <v>631110</v>
+      </c>
+      <c r="AZ199">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="200" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>52</v>
+      </c>
+      <c r="B200" t="s">
+        <v>53</v>
+      </c>
+      <c r="C200">
+        <v>24001173</v>
+      </c>
+      <c r="D200">
+        <v>1204</v>
+      </c>
+      <c r="E200" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F200" t="s">
+        <v>54</v>
+      </c>
+      <c r="G200">
+        <v>0.8</v>
+      </c>
+      <c r="H200">
+        <v>0.8</v>
+      </c>
+      <c r="I200" t="s">
+        <v>55</v>
+      </c>
+      <c r="O200" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>56</v>
+      </c>
+      <c r="R200" t="s">
+        <v>57</v>
+      </c>
+      <c r="T200" t="s">
+        <v>58</v>
+      </c>
+      <c r="U200" t="s">
+        <v>59</v>
+      </c>
+      <c r="V200" t="s">
+        <v>60</v>
+      </c>
+      <c r="W200" t="s">
+        <v>61</v>
+      </c>
+      <c r="X200">
+        <v>2104391</v>
+      </c>
+      <c r="Y200" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z200" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA200">
+        <v>4</v>
+      </c>
+      <c r="AB200" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD200" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE200" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF200" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG200">
+        <v>1</v>
+      </c>
+      <c r="AH200" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL200" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM200" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN200" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO200" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP200">
+        <v>1204</v>
+      </c>
+      <c r="AQ200" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR200">
+        <v>270709</v>
+      </c>
+      <c r="AU200" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV200" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX200" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY200">
+        <v>631110</v>
+      </c>
+      <c r="AZ200">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="201" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>52</v>
+      </c>
+      <c r="B201" t="s">
+        <v>53</v>
+      </c>
+      <c r="C201">
+        <v>24001173</v>
+      </c>
+      <c r="D201">
+        <v>1204</v>
+      </c>
+      <c r="E201" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F201" t="s">
+        <v>54</v>
+      </c>
+      <c r="G201">
+        <v>2.77</v>
+      </c>
+      <c r="H201">
+        <v>2.77</v>
+      </c>
+      <c r="I201" t="s">
+        <v>55</v>
+      </c>
+      <c r="O201" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>56</v>
+      </c>
+      <c r="R201" t="s">
+        <v>57</v>
+      </c>
+      <c r="T201" t="s">
+        <v>58</v>
+      </c>
+      <c r="U201" t="s">
+        <v>59</v>
+      </c>
+      <c r="V201" t="s">
+        <v>60</v>
+      </c>
+      <c r="W201" t="s">
+        <v>61</v>
+      </c>
+      <c r="X201">
+        <v>2104391</v>
+      </c>
+      <c r="Y201" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z201" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA201">
+        <v>6</v>
+      </c>
+      <c r="AB201" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD201" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE201" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF201" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG201">
+        <v>1</v>
+      </c>
+      <c r="AH201" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL201" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM201" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN201" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO201" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP201">
+        <v>1204</v>
+      </c>
+      <c r="AQ201" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR201">
+        <v>280598</v>
+      </c>
+      <c r="AU201" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV201" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX201" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY201">
+        <v>631110</v>
+      </c>
+      <c r="AZ201">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="202" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>52</v>
+      </c>
+      <c r="B202" t="s">
+        <v>53</v>
+      </c>
+      <c r="C202">
+        <v>24001173</v>
+      </c>
+      <c r="D202">
+        <v>1204</v>
+      </c>
+      <c r="E202" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F202" t="s">
+        <v>54</v>
+      </c>
+      <c r="G202">
+        <v>2.65</v>
+      </c>
+      <c r="H202">
+        <v>2.65</v>
+      </c>
+      <c r="I202" t="s">
+        <v>55</v>
+      </c>
+      <c r="O202" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>56</v>
+      </c>
+      <c r="R202" t="s">
+        <v>57</v>
+      </c>
+      <c r="T202" t="s">
+        <v>58</v>
+      </c>
+      <c r="U202" t="s">
+        <v>59</v>
+      </c>
+      <c r="V202" t="s">
+        <v>60</v>
+      </c>
+      <c r="W202" t="s">
+        <v>61</v>
+      </c>
+      <c r="X202">
+        <v>2104391</v>
+      </c>
+      <c r="Y202" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z202" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA202">
+        <v>8</v>
+      </c>
+      <c r="AB202" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD202" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE202" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF202" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG202">
+        <v>1</v>
+      </c>
+      <c r="AH202" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL202" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM202" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN202" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO202" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP202">
+        <v>1204</v>
+      </c>
+      <c r="AQ202" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR202">
+        <v>280598</v>
+      </c>
+      <c r="AU202" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV202" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX202" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY202">
+        <v>631110</v>
+      </c>
+      <c r="AZ202">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="203" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>52</v>
+      </c>
+      <c r="B203" t="s">
+        <v>53</v>
+      </c>
+      <c r="C203">
+        <v>24001173</v>
+      </c>
+      <c r="D203">
+        <v>1204</v>
+      </c>
+      <c r="E203" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F203" t="s">
+        <v>54</v>
+      </c>
+      <c r="G203">
+        <v>1.33</v>
+      </c>
+      <c r="H203">
+        <v>1.33</v>
+      </c>
+      <c r="I203" t="s">
+        <v>55</v>
+      </c>
+      <c r="O203" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>56</v>
+      </c>
+      <c r="R203" t="s">
+        <v>57</v>
+      </c>
+      <c r="T203" t="s">
+        <v>58</v>
+      </c>
+      <c r="U203" t="s">
+        <v>59</v>
+      </c>
+      <c r="V203" t="s">
+        <v>60</v>
+      </c>
+      <c r="W203" t="s">
+        <v>61</v>
+      </c>
+      <c r="X203">
+        <v>2104391</v>
+      </c>
+      <c r="Y203" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z203" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA203">
+        <v>10</v>
+      </c>
+      <c r="AB203" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD203" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE203" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF203" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG203">
+        <v>1</v>
+      </c>
+      <c r="AH203" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL203" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM203" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN203" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO203" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP203">
+        <v>1204</v>
+      </c>
+      <c r="AQ203" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR203">
+        <v>221862</v>
+      </c>
+      <c r="AU203" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV203" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX203" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY203">
+        <v>631110</v>
+      </c>
+      <c r="AZ203">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="204" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>52</v>
+      </c>
+      <c r="B204" t="s">
+        <v>53</v>
+      </c>
+      <c r="C204">
+        <v>24001173</v>
+      </c>
+      <c r="D204">
+        <v>1204</v>
+      </c>
+      <c r="E204" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F204" t="s">
+        <v>54</v>
+      </c>
+      <c r="G204">
+        <v>0.32</v>
+      </c>
+      <c r="H204">
+        <v>0.32</v>
+      </c>
+      <c r="I204" t="s">
+        <v>55</v>
+      </c>
+      <c r="O204" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>56</v>
+      </c>
+      <c r="R204" t="s">
+        <v>57</v>
+      </c>
+      <c r="T204" t="s">
+        <v>58</v>
+      </c>
+      <c r="U204" t="s">
+        <v>59</v>
+      </c>
+      <c r="V204" t="s">
+        <v>60</v>
+      </c>
+      <c r="W204" t="s">
+        <v>61</v>
+      </c>
+      <c r="X204">
+        <v>2104391</v>
+      </c>
+      <c r="Y204" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z204" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA204">
+        <v>12</v>
+      </c>
+      <c r="AB204" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD204" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE204" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF204" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG204">
+        <v>1</v>
+      </c>
+      <c r="AH204" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL204" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM204" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN204" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO204" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP204">
+        <v>1204</v>
+      </c>
+      <c r="AQ204" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR204">
+        <v>249245</v>
+      </c>
+      <c r="AU204" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV204" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX204" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY204">
+        <v>631110</v>
+      </c>
+      <c r="AZ204">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="205" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>52</v>
+      </c>
+      <c r="B205" t="s">
+        <v>53</v>
+      </c>
+      <c r="C205">
+        <v>24001173</v>
+      </c>
+      <c r="D205">
+        <v>1204</v>
+      </c>
+      <c r="E205" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F205" t="s">
+        <v>54</v>
+      </c>
+      <c r="G205">
+        <v>0.8</v>
+      </c>
+      <c r="H205">
+        <v>0.8</v>
+      </c>
+      <c r="I205" t="s">
+        <v>55</v>
+      </c>
+      <c r="O205" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>56</v>
+      </c>
+      <c r="R205" t="s">
+        <v>57</v>
+      </c>
+      <c r="T205" t="s">
+        <v>58</v>
+      </c>
+      <c r="U205" t="s">
+        <v>59</v>
+      </c>
+      <c r="V205" t="s">
+        <v>60</v>
+      </c>
+      <c r="W205" t="s">
+        <v>61</v>
+      </c>
+      <c r="X205">
+        <v>2104391</v>
+      </c>
+      <c r="Y205" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z205" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA205">
+        <v>14</v>
+      </c>
+      <c r="AB205" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD205" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE205" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF205" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG205">
+        <v>1</v>
+      </c>
+      <c r="AH205" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL205" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM205" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN205" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO205" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP205">
+        <v>1204</v>
+      </c>
+      <c r="AQ205" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR205">
+        <v>270709</v>
+      </c>
+      <c r="AU205" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV205" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX205" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY205">
+        <v>631110</v>
+      </c>
+      <c r="AZ205">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="206" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>52</v>
+      </c>
+      <c r="B206" t="s">
+        <v>53</v>
+      </c>
+      <c r="C206">
+        <v>24001173</v>
+      </c>
+      <c r="D206">
+        <v>1204</v>
+      </c>
+      <c r="E206" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F206" t="s">
+        <v>54</v>
+      </c>
+      <c r="G206">
+        <v>7.3</v>
+      </c>
+      <c r="H206">
+        <v>7.3</v>
+      </c>
+      <c r="I206" t="s">
+        <v>55</v>
+      </c>
+      <c r="O206" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>56</v>
+      </c>
+      <c r="R206" t="s">
+        <v>57</v>
+      </c>
+      <c r="T206" t="s">
+        <v>58</v>
+      </c>
+      <c r="U206" t="s">
+        <v>59</v>
+      </c>
+      <c r="V206" t="s">
+        <v>60</v>
+      </c>
+      <c r="W206" t="s">
+        <v>61</v>
+      </c>
+      <c r="X206">
+        <v>2104391</v>
+      </c>
+      <c r="Y206" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z206" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA206">
+        <v>16</v>
+      </c>
+      <c r="AB206" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD206" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE206" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF206" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG206">
+        <v>2</v>
+      </c>
+      <c r="AH206" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL206" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM206" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN206" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO206" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP206">
+        <v>1204</v>
+      </c>
+      <c r="AQ206" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR206">
+        <v>220122</v>
+      </c>
+      <c r="AU206" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV206" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX206" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY206">
+        <v>631110</v>
+      </c>
+      <c r="AZ206">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="207" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>52</v>
+      </c>
+      <c r="B207" t="s">
+        <v>53</v>
+      </c>
+      <c r="C207">
+        <v>24001173</v>
+      </c>
+      <c r="D207">
+        <v>1204</v>
+      </c>
+      <c r="E207" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F207" t="s">
+        <v>54</v>
+      </c>
+      <c r="G207">
+        <v>0.63</v>
+      </c>
+      <c r="H207">
+        <v>0.63</v>
+      </c>
+      <c r="I207" t="s">
+        <v>55</v>
+      </c>
+      <c r="O207" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>56</v>
+      </c>
+      <c r="R207" t="s">
+        <v>57</v>
+      </c>
+      <c r="T207" t="s">
+        <v>58</v>
+      </c>
+      <c r="U207" t="s">
+        <v>59</v>
+      </c>
+      <c r="V207" t="s">
+        <v>60</v>
+      </c>
+      <c r="W207" t="s">
+        <v>61</v>
+      </c>
+      <c r="X207">
+        <v>2104391</v>
+      </c>
+      <c r="Y207" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z207" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA207">
+        <v>18</v>
+      </c>
+      <c r="AB207" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD207" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE207" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF207" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG207">
+        <v>1</v>
+      </c>
+      <c r="AH207" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL207" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM207" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN207" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO207" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP207">
+        <v>1204</v>
+      </c>
+      <c r="AQ207" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR207">
+        <v>90167</v>
+      </c>
+      <c r="AU207" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV207" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX207" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY207">
+        <v>631110</v>
+      </c>
+      <c r="AZ207">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="208" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>52</v>
+      </c>
+      <c r="B208" t="s">
+        <v>53</v>
+      </c>
+      <c r="C208">
+        <v>24001174</v>
+      </c>
+      <c r="D208">
+        <v>1204</v>
+      </c>
+      <c r="E208" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F208" t="s">
+        <v>69</v>
+      </c>
+      <c r="G208">
+        <v>615.32000000000005</v>
+      </c>
+      <c r="H208">
+        <v>615.32000000000005</v>
+      </c>
+      <c r="I208" t="s">
+        <v>55</v>
+      </c>
+      <c r="O208" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>56</v>
+      </c>
+      <c r="R208" t="s">
+        <v>57</v>
+      </c>
+      <c r="T208" t="s">
+        <v>58</v>
+      </c>
+      <c r="U208" t="s">
+        <v>59</v>
+      </c>
+      <c r="V208" t="s">
+        <v>60</v>
+      </c>
+      <c r="W208" t="s">
+        <v>61</v>
+      </c>
+      <c r="X208">
+        <v>2104586</v>
+      </c>
+      <c r="Y208" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z208" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA208">
+        <v>2</v>
+      </c>
+      <c r="AB208" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD208" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE208" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF208" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG208">
+        <v>100</v>
+      </c>
+      <c r="AH208" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL208" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM208" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN208" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO208" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP208">
+        <v>1204</v>
+      </c>
+      <c r="AQ208" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR208">
+        <v>266224</v>
+      </c>
+      <c r="AU208" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV208" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX208" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY208">
+        <v>631110</v>
+      </c>
+      <c r="AZ208">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="209" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>52</v>
+      </c>
+      <c r="B209" t="s">
+        <v>53</v>
+      </c>
+      <c r="C209">
+        <v>24001175</v>
+      </c>
+      <c r="D209">
+        <v>1204</v>
+      </c>
+      <c r="E209" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F209" t="s">
+        <v>66</v>
+      </c>
+      <c r="G209">
+        <v>41.76</v>
+      </c>
+      <c r="H209">
+        <v>41.76</v>
+      </c>
+      <c r="I209" t="s">
+        <v>55</v>
+      </c>
+      <c r="O209" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>56</v>
+      </c>
+      <c r="R209" t="s">
+        <v>57</v>
+      </c>
+      <c r="T209" t="s">
+        <v>58</v>
+      </c>
+      <c r="U209" t="s">
+        <v>59</v>
+      </c>
+      <c r="V209" t="s">
+        <v>60</v>
+      </c>
+      <c r="W209" t="s">
+        <v>61</v>
+      </c>
+      <c r="X209">
+        <v>2104593</v>
+      </c>
+      <c r="Y209" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z209" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA209">
+        <v>2</v>
+      </c>
+      <c r="AB209" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD209" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE209" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF209" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG209">
+        <v>6</v>
+      </c>
+      <c r="AH209" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL209" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM209" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN209" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO209" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP209">
+        <v>1204</v>
+      </c>
+      <c r="AQ209" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR209">
+        <v>225948</v>
+      </c>
+      <c r="AU209" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV209" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX209" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY209">
+        <v>631110</v>
+      </c>
+      <c r="AZ209">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="210" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>52</v>
+      </c>
+      <c r="B210" t="s">
+        <v>53</v>
+      </c>
+      <c r="C210">
+        <v>24001176</v>
+      </c>
+      <c r="D210">
+        <v>1204</v>
+      </c>
+      <c r="E210" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F210" t="s">
+        <v>70</v>
+      </c>
+      <c r="G210">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H210">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I210" t="s">
+        <v>55</v>
+      </c>
+      <c r="O210" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>56</v>
+      </c>
+      <c r="R210" t="s">
+        <v>57</v>
+      </c>
+      <c r="T210" t="s">
+        <v>58</v>
+      </c>
+      <c r="U210" t="s">
+        <v>59</v>
+      </c>
+      <c r="V210" t="s">
+        <v>60</v>
+      </c>
+      <c r="W210" t="s">
+        <v>61</v>
+      </c>
+      <c r="X210">
+        <v>2104789</v>
+      </c>
+      <c r="Y210" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z210" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA210">
+        <v>2</v>
+      </c>
+      <c r="AB210" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD210" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE210" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF210" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG210">
+        <v>1</v>
+      </c>
+      <c r="AH210" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL210" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM210" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN210" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO210" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP210">
+        <v>1204</v>
+      </c>
+      <c r="AQ210" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR210">
+        <v>91479</v>
+      </c>
+      <c r="AU210" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV210" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX210" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY210">
+        <v>631110</v>
+      </c>
+      <c r="AZ210">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="211" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>52</v>
+      </c>
+      <c r="B211" t="s">
+        <v>53</v>
+      </c>
+      <c r="C211">
+        <v>24001176</v>
+      </c>
+      <c r="D211">
+        <v>1204</v>
+      </c>
+      <c r="E211" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F211" t="s">
+        <v>70</v>
+      </c>
+      <c r="G211">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H211">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I211" t="s">
+        <v>55</v>
+      </c>
+      <c r="O211" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>56</v>
+      </c>
+      <c r="R211" t="s">
+        <v>57</v>
+      </c>
+      <c r="T211" t="s">
+        <v>58</v>
+      </c>
+      <c r="U211" t="s">
+        <v>59</v>
+      </c>
+      <c r="V211" t="s">
+        <v>60</v>
+      </c>
+      <c r="W211" t="s">
+        <v>61</v>
+      </c>
+      <c r="X211">
+        <v>2104789</v>
+      </c>
+      <c r="Y211" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z211" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA211">
+        <v>4</v>
+      </c>
+      <c r="AB211" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD211" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE211" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF211" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG211">
+        <v>2</v>
+      </c>
+      <c r="AH211" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL211" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM211" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN211" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO211" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP211">
+        <v>1204</v>
+      </c>
+      <c r="AQ211" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR211">
+        <v>264585</v>
+      </c>
+      <c r="AU211" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV211" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX211" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY211">
+        <v>631110</v>
+      </c>
+      <c r="AZ211">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="212" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>52</v>
+      </c>
+      <c r="B212" t="s">
+        <v>53</v>
+      </c>
+      <c r="C212">
+        <v>24001176</v>
+      </c>
+      <c r="D212">
+        <v>1204</v>
+      </c>
+      <c r="E212" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F212" t="s">
+        <v>70</v>
+      </c>
+      <c r="G212">
+        <v>0.82</v>
+      </c>
+      <c r="H212">
+        <v>0.82</v>
+      </c>
+      <c r="I212" t="s">
+        <v>55</v>
+      </c>
+      <c r="O212" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>56</v>
+      </c>
+      <c r="R212" t="s">
+        <v>57</v>
+      </c>
+      <c r="T212" t="s">
+        <v>58</v>
+      </c>
+      <c r="U212" t="s">
+        <v>59</v>
+      </c>
+      <c r="V212" t="s">
+        <v>60</v>
+      </c>
+      <c r="W212" t="s">
+        <v>61</v>
+      </c>
+      <c r="X212">
+        <v>2104789</v>
+      </c>
+      <c r="Y212" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z212" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA212">
+        <v>6</v>
+      </c>
+      <c r="AB212" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD212" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE212" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF212" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG212">
+        <v>4</v>
+      </c>
+      <c r="AH212" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL212" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM212" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN212" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO212" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP212">
+        <v>1204</v>
+      </c>
+      <c r="AQ212" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR212">
+        <v>89727</v>
+      </c>
+      <c r="AU212" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV212" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX212" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY212">
+        <v>631110</v>
+      </c>
+      <c r="AZ212">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="213" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>52</v>
+      </c>
+      <c r="B213" t="s">
+        <v>53</v>
+      </c>
+      <c r="C213">
+        <v>24001176</v>
+      </c>
+      <c r="D213">
+        <v>1204</v>
+      </c>
+      <c r="E213" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F213" t="s">
+        <v>70</v>
+      </c>
+      <c r="G213">
+        <v>0.79</v>
+      </c>
+      <c r="H213">
+        <v>0.79</v>
+      </c>
+      <c r="I213" t="s">
+        <v>55</v>
+      </c>
+      <c r="O213" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>56</v>
+      </c>
+      <c r="R213" t="s">
+        <v>57</v>
+      </c>
+      <c r="T213" t="s">
+        <v>58</v>
+      </c>
+      <c r="U213" t="s">
+        <v>59</v>
+      </c>
+      <c r="V213" t="s">
+        <v>60</v>
+      </c>
+      <c r="W213" t="s">
+        <v>61</v>
+      </c>
+      <c r="X213">
+        <v>2104789</v>
+      </c>
+      <c r="Y213" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z213" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA213">
+        <v>8</v>
+      </c>
+      <c r="AB213" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD213" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE213" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF213" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG213">
+        <v>5</v>
+      </c>
+      <c r="AH213" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL213" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM213" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN213" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO213" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP213">
+        <v>1204</v>
+      </c>
+      <c r="AQ213" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR213">
+        <v>89712</v>
+      </c>
+      <c r="AU213" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV213" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX213" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY213">
+        <v>631110</v>
+      </c>
+      <c r="AZ213">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="214" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>52</v>
+      </c>
+      <c r="B214" t="s">
+        <v>53</v>
+      </c>
+      <c r="C214">
+        <v>24001176</v>
+      </c>
+      <c r="D214">
+        <v>1204</v>
+      </c>
+      <c r="E214" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F214" t="s">
+        <v>70</v>
+      </c>
+      <c r="G214">
+        <v>11.27</v>
+      </c>
+      <c r="H214">
+        <v>11.27</v>
+      </c>
+      <c r="I214" t="s">
+        <v>55</v>
+      </c>
+      <c r="O214" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>56</v>
+      </c>
+      <c r="R214" t="s">
+        <v>57</v>
+      </c>
+      <c r="T214" t="s">
+        <v>58</v>
+      </c>
+      <c r="U214" t="s">
+        <v>59</v>
+      </c>
+      <c r="V214" t="s">
+        <v>60</v>
+      </c>
+      <c r="W214" t="s">
+        <v>61</v>
+      </c>
+      <c r="X214">
+        <v>2104789</v>
+      </c>
+      <c r="Y214" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z214" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA214">
+        <v>10</v>
+      </c>
+      <c r="AB214" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD214" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE214" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF214" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG214">
+        <v>34</v>
+      </c>
+      <c r="AH214" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL214" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM214" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN214" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO214" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP214">
+        <v>1204</v>
+      </c>
+      <c r="AQ214" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR214">
+        <v>91011</v>
+      </c>
+      <c r="AU214" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV214" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX214" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY214">
+        <v>631110</v>
+      </c>
+      <c r="AZ214">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="215" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>52</v>
+      </c>
+      <c r="B215" t="s">
+        <v>53</v>
+      </c>
+      <c r="C215">
+        <v>24001176</v>
+      </c>
+      <c r="D215">
+        <v>1204</v>
+      </c>
+      <c r="E215" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F215" t="s">
+        <v>70</v>
+      </c>
+      <c r="G215">
+        <v>1.19</v>
+      </c>
+      <c r="H215">
+        <v>1.19</v>
+      </c>
+      <c r="I215" t="s">
+        <v>55</v>
+      </c>
+      <c r="O215" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>56</v>
+      </c>
+      <c r="R215" t="s">
+        <v>57</v>
+      </c>
+      <c r="T215" t="s">
+        <v>58</v>
+      </c>
+      <c r="U215" t="s">
+        <v>59</v>
+      </c>
+      <c r="V215" t="s">
+        <v>60</v>
+      </c>
+      <c r="W215" t="s">
+        <v>61</v>
+      </c>
+      <c r="X215">
+        <v>2104789</v>
+      </c>
+      <c r="Y215" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z215" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA215">
+        <v>12</v>
+      </c>
+      <c r="AB215" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD215" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE215" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF215" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG215">
+        <v>8</v>
+      </c>
+      <c r="AH215" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL215" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM215" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN215" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO215" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP215">
+        <v>1204</v>
+      </c>
+      <c r="AQ215" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR215">
+        <v>144854</v>
+      </c>
+      <c r="AU215" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV215" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX215" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY215">
+        <v>631110</v>
+      </c>
+      <c r="AZ215">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="216" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>52</v>
+      </c>
+      <c r="B216" t="s">
+        <v>53</v>
+      </c>
+      <c r="C216">
+        <v>24001177</v>
+      </c>
+      <c r="D216">
+        <v>1204</v>
+      </c>
+      <c r="E216" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F216" t="s">
+        <v>54</v>
+      </c>
+      <c r="G216">
+        <v>0.66</v>
+      </c>
+      <c r="H216">
+        <v>0.66</v>
+      </c>
+      <c r="I216" t="s">
+        <v>55</v>
+      </c>
+      <c r="O216" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>56</v>
+      </c>
+      <c r="R216" t="s">
+        <v>57</v>
+      </c>
+      <c r="T216" t="s">
+        <v>58</v>
+      </c>
+      <c r="U216" t="s">
+        <v>59</v>
+      </c>
+      <c r="V216" t="s">
+        <v>60</v>
+      </c>
+      <c r="W216" t="s">
+        <v>61</v>
+      </c>
+      <c r="X216">
+        <v>2104791</v>
+      </c>
+      <c r="Y216" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z216" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA216">
+        <v>2</v>
+      </c>
+      <c r="AB216" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD216" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE216" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF216" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG216">
+        <v>1</v>
+      </c>
+      <c r="AH216" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL216" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM216" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN216" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO216" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP216">
+        <v>1204</v>
+      </c>
+      <c r="AQ216" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR216">
+        <v>112854</v>
+      </c>
+      <c r="AU216" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV216" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX216" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY216">
+        <v>631110</v>
+      </c>
+      <c r="AZ216">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="217" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>52</v>
+      </c>
+      <c r="B217" t="s">
+        <v>53</v>
+      </c>
+      <c r="C217">
+        <v>24001177</v>
+      </c>
+      <c r="D217">
+        <v>1204</v>
+      </c>
+      <c r="E217" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F217" t="s">
+        <v>54</v>
+      </c>
+      <c r="G217">
+        <v>23.33</v>
+      </c>
+      <c r="H217">
+        <v>23.33</v>
+      </c>
+      <c r="I217" t="s">
+        <v>55</v>
+      </c>
+      <c r="O217" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>56</v>
+      </c>
+      <c r="R217" t="s">
+        <v>57</v>
+      </c>
+      <c r="T217" t="s">
+        <v>58</v>
+      </c>
+      <c r="U217" t="s">
+        <v>59</v>
+      </c>
+      <c r="V217" t="s">
+        <v>60</v>
+      </c>
+      <c r="W217" t="s">
+        <v>61</v>
+      </c>
+      <c r="X217">
+        <v>2104791</v>
+      </c>
+      <c r="Y217" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z217" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA217">
+        <v>4</v>
+      </c>
+      <c r="AB217" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD217" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE217" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF217" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG217">
+        <v>1</v>
+      </c>
+      <c r="AH217" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL217" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM217" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN217" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO217" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP217">
+        <v>1204</v>
+      </c>
+      <c r="AQ217" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR217">
+        <v>96020</v>
+      </c>
+      <c r="AU217" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV217" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX217" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY217">
+        <v>631110</v>
+      </c>
+      <c r="AZ217">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="218" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>52</v>
+      </c>
+      <c r="B218" t="s">
+        <v>53</v>
+      </c>
+      <c r="C218">
+        <v>24001177</v>
+      </c>
+      <c r="D218">
+        <v>1204</v>
+      </c>
+      <c r="E218" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F218" t="s">
+        <v>54</v>
+      </c>
+      <c r="G218">
+        <v>14.47</v>
+      </c>
+      <c r="H218">
+        <v>14.47</v>
+      </c>
+      <c r="I218" t="s">
+        <v>55</v>
+      </c>
+      <c r="O218" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>56</v>
+      </c>
+      <c r="R218" t="s">
+        <v>57</v>
+      </c>
+      <c r="T218" t="s">
+        <v>58</v>
+      </c>
+      <c r="U218" t="s">
+        <v>59</v>
+      </c>
+      <c r="V218" t="s">
+        <v>60</v>
+      </c>
+      <c r="W218" t="s">
+        <v>61</v>
+      </c>
+      <c r="X218">
+        <v>2104791</v>
+      </c>
+      <c r="Y218" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z218" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA218">
+        <v>6</v>
+      </c>
+      <c r="AB218" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD218" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE218" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF218" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG218">
+        <v>2</v>
+      </c>
+      <c r="AH218" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL218" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM218" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN218" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO218" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP218">
+        <v>1204</v>
+      </c>
+      <c r="AQ218" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR218">
+        <v>281047</v>
+      </c>
+      <c r="AU218" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV218" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX218" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY218">
+        <v>631110</v>
+      </c>
+      <c r="AZ218">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="219" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>52</v>
+      </c>
+      <c r="B219" t="s">
+        <v>53</v>
+      </c>
+      <c r="C219">
+        <v>24001177</v>
+      </c>
+      <c r="D219">
+        <v>1204</v>
+      </c>
+      <c r="E219" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F219" t="s">
+        <v>54</v>
+      </c>
+      <c r="G219">
+        <v>19.04</v>
+      </c>
+      <c r="H219">
+        <v>19.04</v>
+      </c>
+      <c r="I219" t="s">
+        <v>55</v>
+      </c>
+      <c r="O219" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>56</v>
+      </c>
+      <c r="R219" t="s">
+        <v>57</v>
+      </c>
+      <c r="T219" t="s">
+        <v>58</v>
+      </c>
+      <c r="U219" t="s">
+        <v>59</v>
+      </c>
+      <c r="V219" t="s">
+        <v>60</v>
+      </c>
+      <c r="W219" t="s">
+        <v>61</v>
+      </c>
+      <c r="X219">
+        <v>2104791</v>
+      </c>
+      <c r="Y219" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z219" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA219">
+        <v>8</v>
+      </c>
+      <c r="AB219" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD219" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE219" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF219" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG219">
+        <v>3</v>
+      </c>
+      <c r="AH219" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL219" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM219" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN219" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO219" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP219">
+        <v>1204</v>
+      </c>
+      <c r="AQ219" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR219">
+        <v>91077</v>
+      </c>
+      <c r="AU219" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV219" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX219" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY219">
+        <v>631110</v>
+      </c>
+      <c r="AZ219">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="220" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>52</v>
+      </c>
+      <c r="B220" t="s">
+        <v>53</v>
+      </c>
+      <c r="C220">
+        <v>24001177</v>
+      </c>
+      <c r="D220">
+        <v>1204</v>
+      </c>
+      <c r="E220" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F220" t="s">
+        <v>54</v>
+      </c>
+      <c r="G220">
+        <v>0.5</v>
+      </c>
+      <c r="H220">
+        <v>0.5</v>
+      </c>
+      <c r="I220" t="s">
+        <v>55</v>
+      </c>
+      <c r="O220" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>56</v>
+      </c>
+      <c r="R220" t="s">
+        <v>57</v>
+      </c>
+      <c r="T220" t="s">
+        <v>58</v>
+      </c>
+      <c r="U220" t="s">
+        <v>59</v>
+      </c>
+      <c r="V220" t="s">
+        <v>60</v>
+      </c>
+      <c r="W220" t="s">
+        <v>61</v>
+      </c>
+      <c r="X220">
+        <v>2104791</v>
+      </c>
+      <c r="Y220" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z220" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA220">
+        <v>10</v>
+      </c>
+      <c r="AB220" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD220" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE220" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF220" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG220">
+        <v>1</v>
+      </c>
+      <c r="AH220" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL220" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM220" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN220" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO220" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP220">
+        <v>1204</v>
+      </c>
+      <c r="AQ220" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR220">
+        <v>89777</v>
+      </c>
+      <c r="AU220" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV220" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX220" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY220">
+        <v>631110</v>
+      </c>
+      <c r="AZ220">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="221" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>52</v>
+      </c>
+      <c r="B221" t="s">
+        <v>53</v>
+      </c>
+      <c r="C221">
+        <v>24001177</v>
+      </c>
+      <c r="D221">
+        <v>1204</v>
+      </c>
+      <c r="E221" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F221" t="s">
+        <v>54</v>
+      </c>
+      <c r="G221">
+        <v>2.4</v>
+      </c>
+      <c r="H221">
+        <v>2.4</v>
+      </c>
+      <c r="I221" t="s">
+        <v>55</v>
+      </c>
+      <c r="O221" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>56</v>
+      </c>
+      <c r="R221" t="s">
+        <v>57</v>
+      </c>
+      <c r="T221" t="s">
+        <v>58</v>
+      </c>
+      <c r="U221" t="s">
+        <v>59</v>
+      </c>
+      <c r="V221" t="s">
+        <v>60</v>
+      </c>
+      <c r="W221" t="s">
+        <v>61</v>
+      </c>
+      <c r="X221">
+        <v>2104791</v>
+      </c>
+      <c r="Y221" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z221" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA221">
+        <v>12</v>
+      </c>
+      <c r="AB221" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD221" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE221" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF221" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG221">
+        <v>1</v>
+      </c>
+      <c r="AH221" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL221" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM221" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN221" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO221" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP221">
+        <v>1204</v>
+      </c>
+      <c r="AQ221" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR221">
+        <v>152910</v>
+      </c>
+      <c r="AU221" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV221" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX221" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY221">
+        <v>631110</v>
+      </c>
+      <c r="AZ221">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="222" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>52</v>
+      </c>
+      <c r="B222" t="s">
+        <v>53</v>
+      </c>
+      <c r="C222">
+        <v>24001177</v>
+      </c>
+      <c r="D222">
+        <v>1204</v>
+      </c>
+      <c r="E222" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F222" t="s">
+        <v>54</v>
+      </c>
+      <c r="G222">
+        <v>2.12</v>
+      </c>
+      <c r="H222">
+        <v>2.12</v>
+      </c>
+      <c r="I222" t="s">
+        <v>55</v>
+      </c>
+      <c r="O222" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>56</v>
+      </c>
+      <c r="R222" t="s">
+        <v>57</v>
+      </c>
+      <c r="T222" t="s">
+        <v>58</v>
+      </c>
+      <c r="U222" t="s">
+        <v>59</v>
+      </c>
+      <c r="V222" t="s">
+        <v>60</v>
+      </c>
+      <c r="W222" t="s">
+        <v>61</v>
+      </c>
+      <c r="X222">
+        <v>2104791</v>
+      </c>
+      <c r="Y222" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z222" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA222">
+        <v>14</v>
+      </c>
+      <c r="AB222" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD222" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE222" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF222" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG222">
+        <v>1</v>
+      </c>
+      <c r="AH222" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL222" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM222" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN222" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO222" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP222">
+        <v>1204</v>
+      </c>
+      <c r="AQ222" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR222">
+        <v>262859</v>
+      </c>
+      <c r="AU222" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV222" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX222" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY222">
+        <v>631110</v>
+      </c>
+      <c r="AZ222">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="223" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>52</v>
+      </c>
+      <c r="B223" t="s">
+        <v>53</v>
+      </c>
+      <c r="C223">
+        <v>24001177</v>
+      </c>
+      <c r="D223">
+        <v>1204</v>
+      </c>
+      <c r="E223" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F223" t="s">
+        <v>54</v>
+      </c>
+      <c r="G223">
+        <v>52.05</v>
+      </c>
+      <c r="H223">
+        <v>52.05</v>
+      </c>
+      <c r="I223" t="s">
+        <v>55</v>
+      </c>
+      <c r="O223" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>56</v>
+      </c>
+      <c r="R223" t="s">
+        <v>57</v>
+      </c>
+      <c r="T223" t="s">
+        <v>58</v>
+      </c>
+      <c r="U223" t="s">
+        <v>59</v>
+      </c>
+      <c r="V223" t="s">
+        <v>60</v>
+      </c>
+      <c r="W223" t="s">
+        <v>61</v>
+      </c>
+      <c r="X223">
+        <v>2104791</v>
+      </c>
+      <c r="Y223" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z223" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA223">
+        <v>16</v>
+      </c>
+      <c r="AB223" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD223" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE223" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF223" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG223">
+        <v>1</v>
+      </c>
+      <c r="AH223" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL223" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM223" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN223" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO223" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP223">
+        <v>1204</v>
+      </c>
+      <c r="AQ223" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR223">
+        <v>122819</v>
+      </c>
+      <c r="AU223" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV223" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX223" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY223">
+        <v>631110</v>
+      </c>
+      <c r="AZ223">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="224" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>52</v>
+      </c>
+      <c r="B224" t="s">
+        <v>53</v>
+      </c>
+      <c r="C224">
+        <v>24001177</v>
+      </c>
+      <c r="D224">
+        <v>1204</v>
+      </c>
+      <c r="E224" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F224" t="s">
+        <v>54</v>
+      </c>
+      <c r="G224">
+        <v>11.71</v>
+      </c>
+      <c r="H224">
+        <v>11.71</v>
+      </c>
+      <c r="I224" t="s">
+        <v>55</v>
+      </c>
+      <c r="O224" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>56</v>
+      </c>
+      <c r="R224" t="s">
+        <v>57</v>
+      </c>
+      <c r="T224" t="s">
+        <v>58</v>
+      </c>
+      <c r="U224" t="s">
+        <v>59</v>
+      </c>
+      <c r="V224" t="s">
+        <v>60</v>
+      </c>
+      <c r="W224" t="s">
+        <v>61</v>
+      </c>
+      <c r="X224">
+        <v>2104791</v>
+      </c>
+      <c r="Y224" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z224" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA224">
+        <v>18</v>
+      </c>
+      <c r="AB224" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD224" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE224" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF224" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG224">
+        <v>1</v>
+      </c>
+      <c r="AH224" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL224" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM224" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN224" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO224" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP224">
+        <v>1204</v>
+      </c>
+      <c r="AQ224" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR224">
+        <v>221864</v>
+      </c>
+      <c r="AU224" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV224" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX224" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY224">
+        <v>631110</v>
+      </c>
+      <c r="AZ224">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="225" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>52</v>
+      </c>
+      <c r="B225" t="s">
+        <v>53</v>
+      </c>
+      <c r="C225">
+        <v>24001177</v>
+      </c>
+      <c r="D225">
+        <v>1204</v>
+      </c>
+      <c r="E225" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F225" t="s">
+        <v>54</v>
+      </c>
+      <c r="G225">
+        <v>79.25</v>
+      </c>
+      <c r="H225">
+        <v>79.25</v>
+      </c>
+      <c r="I225" t="s">
+        <v>55</v>
+      </c>
+      <c r="O225" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>56</v>
+      </c>
+      <c r="R225" t="s">
+        <v>57</v>
+      </c>
+      <c r="T225" t="s">
+        <v>58</v>
+      </c>
+      <c r="U225" t="s">
+        <v>59</v>
+      </c>
+      <c r="V225" t="s">
+        <v>60</v>
+      </c>
+      <c r="W225" t="s">
+        <v>61</v>
+      </c>
+      <c r="X225">
+        <v>2104791</v>
+      </c>
+      <c r="Y225" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z225" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA225">
+        <v>20</v>
+      </c>
+      <c r="AB225" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD225" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE225" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF225" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG225">
+        <v>1</v>
+      </c>
+      <c r="AH225" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL225" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM225" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN225" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO225" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP225">
+        <v>1204</v>
+      </c>
+      <c r="AQ225" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR225">
+        <v>221863</v>
+      </c>
+      <c r="AU225" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV225" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX225" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY225">
+        <v>631110</v>
+      </c>
+      <c r="AZ225">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="226" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>52</v>
+      </c>
+      <c r="B226" t="s">
+        <v>53</v>
+      </c>
+      <c r="C226">
+        <v>24001177</v>
+      </c>
+      <c r="D226">
+        <v>1204</v>
+      </c>
+      <c r="E226" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F226" t="s">
+        <v>54</v>
+      </c>
+      <c r="G226">
+        <v>12.9</v>
+      </c>
+      <c r="H226">
+        <v>12.9</v>
+      </c>
+      <c r="I226" t="s">
+        <v>55</v>
+      </c>
+      <c r="O226" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>56</v>
+      </c>
+      <c r="R226" t="s">
+        <v>57</v>
+      </c>
+      <c r="T226" t="s">
+        <v>58</v>
+      </c>
+      <c r="U226" t="s">
+        <v>59</v>
+      </c>
+      <c r="V226" t="s">
+        <v>60</v>
+      </c>
+      <c r="W226" t="s">
+        <v>61</v>
+      </c>
+      <c r="X226">
+        <v>2104791</v>
+      </c>
+      <c r="Y226" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z226" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA226">
+        <v>22</v>
+      </c>
+      <c r="AB226" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD226" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE226" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF226" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG226">
+        <v>1</v>
+      </c>
+      <c r="AH226" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL226" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM226" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN226" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO226" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP226">
+        <v>1204</v>
+      </c>
+      <c r="AQ226" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR226">
+        <v>96021</v>
+      </c>
+      <c r="AU226" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV226" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX226" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY226">
+        <v>631110</v>
+      </c>
+      <c r="AZ226">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="227" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>52</v>
+      </c>
+      <c r="B227" t="s">
+        <v>53</v>
+      </c>
+      <c r="C227">
+        <v>24001178</v>
+      </c>
+      <c r="D227">
+        <v>1204</v>
+      </c>
+      <c r="E227" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F227" t="s">
+        <v>70</v>
+      </c>
+      <c r="G227">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H227">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I227" t="s">
+        <v>55</v>
+      </c>
+      <c r="O227" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>56</v>
+      </c>
+      <c r="R227" t="s">
+        <v>57</v>
+      </c>
+      <c r="T227" t="s">
+        <v>58</v>
+      </c>
+      <c r="U227" t="s">
+        <v>59</v>
+      </c>
+      <c r="V227" t="s">
+        <v>60</v>
+      </c>
+      <c r="W227" t="s">
+        <v>61</v>
+      </c>
+      <c r="X227">
+        <v>2105259</v>
+      </c>
+      <c r="Y227" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z227" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA227">
+        <v>2</v>
+      </c>
+      <c r="AB227" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD227" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE227" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF227" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG227">
+        <v>1</v>
+      </c>
+      <c r="AH227" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL227" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM227" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN227" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO227" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP227">
+        <v>1204</v>
+      </c>
+      <c r="AQ227" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR227">
+        <v>91479</v>
+      </c>
+      <c r="AU227" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV227" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX227" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY227">
+        <v>631110</v>
+      </c>
+      <c r="AZ227">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="228" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>52</v>
+      </c>
+      <c r="B228" t="s">
+        <v>53</v>
+      </c>
+      <c r="C228">
+        <v>24001178</v>
+      </c>
+      <c r="D228">
+        <v>1204</v>
+      </c>
+      <c r="E228" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F228" t="s">
+        <v>70</v>
+      </c>
+      <c r="G228">
+        <v>0.71</v>
+      </c>
+      <c r="H228">
+        <v>0.71</v>
+      </c>
+      <c r="I228" t="s">
+        <v>55</v>
+      </c>
+      <c r="O228" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>56</v>
+      </c>
+      <c r="R228" t="s">
+        <v>57</v>
+      </c>
+      <c r="T228" t="s">
+        <v>58</v>
+      </c>
+      <c r="U228" t="s">
+        <v>59</v>
+      </c>
+      <c r="V228" t="s">
+        <v>60</v>
+      </c>
+      <c r="W228" t="s">
+        <v>61</v>
+      </c>
+      <c r="X228">
+        <v>2105259</v>
+      </c>
+      <c r="Y228" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z228" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA228">
+        <v>4</v>
+      </c>
+      <c r="AB228" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD228" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE228" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF228" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG228">
+        <v>10</v>
+      </c>
+      <c r="AH228" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL228" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM228" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN228" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO228" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP228">
+        <v>1204</v>
+      </c>
+      <c r="AQ228" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR228">
+        <v>264585</v>
+      </c>
+      <c r="AU228" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV228" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX228" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY228">
+        <v>631110</v>
+      </c>
+      <c r="AZ228">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="229" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>52</v>
+      </c>
+      <c r="B229" t="s">
+        <v>53</v>
+      </c>
+      <c r="C229">
+        <v>24001178</v>
+      </c>
+      <c r="D229">
+        <v>1204</v>
+      </c>
+      <c r="E229" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F229" t="s">
+        <v>70</v>
+      </c>
+      <c r="G229">
+        <v>2.36</v>
+      </c>
+      <c r="H229">
+        <v>2.36</v>
+      </c>
+      <c r="I229" t="s">
+        <v>55</v>
+      </c>
+      <c r="O229" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q229" t="s">
+        <v>56</v>
+      </c>
+      <c r="R229" t="s">
+        <v>57</v>
+      </c>
+      <c r="T229" t="s">
+        <v>58</v>
+      </c>
+      <c r="U229" t="s">
+        <v>59</v>
+      </c>
+      <c r="V229" t="s">
+        <v>60</v>
+      </c>
+      <c r="W229" t="s">
+        <v>61</v>
+      </c>
+      <c r="X229">
+        <v>2105259</v>
+      </c>
+      <c r="Y229" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z229" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA229">
+        <v>6</v>
+      </c>
+      <c r="AB229" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD229" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE229" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF229" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG229">
+        <v>15</v>
+      </c>
+      <c r="AH229" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL229" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM229" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN229" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO229" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP229">
+        <v>1204</v>
+      </c>
+      <c r="AQ229" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR229">
+        <v>89712</v>
+      </c>
+      <c r="AU229" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV229" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX229" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY229">
+        <v>631110</v>
+      </c>
+      <c r="AZ229">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="230" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>52</v>
+      </c>
+      <c r="B230" t="s">
+        <v>53</v>
+      </c>
+      <c r="C230">
+        <v>24001178</v>
+      </c>
+      <c r="D230">
+        <v>1204</v>
+      </c>
+      <c r="E230" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F230" t="s">
+        <v>70</v>
+      </c>
+      <c r="G230">
+        <v>11.93</v>
+      </c>
+      <c r="H230">
+        <v>11.93</v>
+      </c>
+      <c r="I230" t="s">
+        <v>55</v>
+      </c>
+      <c r="O230" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q230" t="s">
+        <v>56</v>
+      </c>
+      <c r="R230" t="s">
+        <v>57</v>
+      </c>
+      <c r="T230" t="s">
+        <v>58</v>
+      </c>
+      <c r="U230" t="s">
+        <v>59</v>
+      </c>
+      <c r="V230" t="s">
+        <v>60</v>
+      </c>
+      <c r="W230" t="s">
+        <v>61</v>
+      </c>
+      <c r="X230">
+        <v>2105259</v>
+      </c>
+      <c r="Y230" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z230" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA230">
+        <v>8</v>
+      </c>
+      <c r="AB230" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD230" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE230" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF230" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG230">
+        <v>36</v>
+      </c>
+      <c r="AH230" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL230" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM230" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN230" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO230" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP230">
+        <v>1204</v>
+      </c>
+      <c r="AQ230" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR230">
+        <v>91011</v>
+      </c>
+      <c r="AU230" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV230" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX230" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY230">
+        <v>631110</v>
+      </c>
+      <c r="AZ230">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="231" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>52</v>
+      </c>
+      <c r="B231" t="s">
+        <v>53</v>
+      </c>
+      <c r="C231">
+        <v>24001178</v>
+      </c>
+      <c r="D231">
+        <v>1204</v>
+      </c>
+      <c r="E231" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F231" t="s">
+        <v>70</v>
+      </c>
+      <c r="G231">
+        <v>1.49</v>
+      </c>
+      <c r="H231">
+        <v>1.49</v>
+      </c>
+      <c r="I231" t="s">
+        <v>55</v>
+      </c>
+      <c r="O231" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q231" t="s">
+        <v>56</v>
+      </c>
+      <c r="R231" t="s">
+        <v>57</v>
+      </c>
+      <c r="T231" t="s">
+        <v>58</v>
+      </c>
+      <c r="U231" t="s">
+        <v>59</v>
+      </c>
+      <c r="V231" t="s">
+        <v>60</v>
+      </c>
+      <c r="W231" t="s">
+        <v>61</v>
+      </c>
+      <c r="X231">
+        <v>2105259</v>
+      </c>
+      <c r="Y231" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z231" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA231">
+        <v>10</v>
+      </c>
+      <c r="AB231" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD231" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE231" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF231" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG231">
+        <v>10</v>
+      </c>
+      <c r="AH231" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL231" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM231" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN231" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO231" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP231">
+        <v>1204</v>
+      </c>
+      <c r="AQ231" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR231">
+        <v>144854</v>
+      </c>
+      <c r="AU231" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV231" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX231" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY231">
+        <v>631110</v>
+      </c>
+      <c r="AZ231">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="232" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>52</v>
+      </c>
+      <c r="B232" t="s">
+        <v>53</v>
+      </c>
+      <c r="C232">
+        <v>24001179</v>
+      </c>
+      <c r="D232">
+        <v>1204</v>
+      </c>
+      <c r="E232" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F232" t="s">
+        <v>66</v>
+      </c>
+      <c r="G232">
+        <v>7.55</v>
+      </c>
+      <c r="H232">
+        <v>7.55</v>
+      </c>
+      <c r="I232" t="s">
+        <v>55</v>
+      </c>
+      <c r="O232" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q232" t="s">
+        <v>56</v>
+      </c>
+      <c r="R232" t="s">
+        <v>57</v>
+      </c>
+      <c r="T232" t="s">
+        <v>58</v>
+      </c>
+      <c r="U232" t="s">
+        <v>59</v>
+      </c>
+      <c r="V232" t="s">
+        <v>60</v>
+      </c>
+      <c r="W232" t="s">
+        <v>61</v>
+      </c>
+      <c r="X232">
+        <v>2105342</v>
+      </c>
+      <c r="Y232" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z232" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA232">
+        <v>2</v>
+      </c>
+      <c r="AB232" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD232" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE232" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF232" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG232">
+        <v>1</v>
+      </c>
+      <c r="AH232" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL232" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM232" s="1">
+        <v>45345</v>
+      </c>
+      <c r="AN232" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO232" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP232">
+        <v>1204</v>
+      </c>
+      <c r="AQ232" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR232">
+        <v>227112</v>
+      </c>
+      <c r="AU232" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV232" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX232" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY232">
+        <v>631110</v>
+      </c>
+      <c r="AZ232">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="233" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>52</v>
+      </c>
+      <c r="B233" t="s">
+        <v>53</v>
+      </c>
+      <c r="C233">
+        <v>24001180</v>
+      </c>
+      <c r="D233">
+        <v>1204</v>
+      </c>
+      <c r="E233" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F233" t="s">
+        <v>54</v>
+      </c>
+      <c r="G233">
+        <v>3.84</v>
+      </c>
+      <c r="H233">
+        <v>3.84</v>
+      </c>
+      <c r="I233" t="s">
+        <v>55</v>
+      </c>
+      <c r="O233" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q233" t="s">
+        <v>56</v>
+      </c>
+      <c r="R233" t="s">
+        <v>57</v>
+      </c>
+      <c r="T233" t="s">
+        <v>58</v>
+      </c>
+      <c r="U233" t="s">
+        <v>59</v>
+      </c>
+      <c r="V233" t="s">
+        <v>60</v>
+      </c>
+      <c r="W233" t="s">
+        <v>61</v>
+      </c>
+      <c r="X233">
+        <v>2105342</v>
+      </c>
+      <c r="Y233" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z233" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA233">
+        <v>16</v>
+      </c>
+      <c r="AB233" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD233" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE233" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF233" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG233">
+        <v>1</v>
+      </c>
+      <c r="AH233" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL233" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM233" s="1">
+        <v>45345</v>
+      </c>
+      <c r="AN233" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO233" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP233">
+        <v>1204</v>
+      </c>
+      <c r="AQ233" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR233">
+        <v>182375</v>
+      </c>
+      <c r="AU233" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV233" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX233" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY233">
+        <v>631110</v>
+      </c>
+      <c r="AZ233">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="234" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>52</v>
+      </c>
+      <c r="B234" t="s">
+        <v>53</v>
+      </c>
+      <c r="C234">
+        <v>24001180</v>
+      </c>
+      <c r="D234">
+        <v>1204</v>
+      </c>
+      <c r="E234" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F234" t="s">
+        <v>54</v>
+      </c>
+      <c r="G234">
+        <v>3.86</v>
+      </c>
+      <c r="H234">
+        <v>3.86</v>
+      </c>
+      <c r="I234" t="s">
+        <v>55</v>
+      </c>
+      <c r="O234" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q234" t="s">
+        <v>56</v>
+      </c>
+      <c r="R234" t="s">
+        <v>57</v>
+      </c>
+      <c r="T234" t="s">
+        <v>58</v>
+      </c>
+      <c r="U234" t="s">
+        <v>59</v>
+      </c>
+      <c r="V234" t="s">
+        <v>60</v>
+      </c>
+      <c r="W234" t="s">
+        <v>61</v>
+      </c>
+      <c r="X234">
+        <v>2105342</v>
+      </c>
+      <c r="Y234" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z234" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA234">
+        <v>2</v>
+      </c>
+      <c r="AB234" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD234" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE234" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF234" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG234">
+        <v>1</v>
+      </c>
+      <c r="AH234" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL234" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM234" s="1">
+        <v>45345</v>
+      </c>
+      <c r="AN234" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO234" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP234">
+        <v>1204</v>
+      </c>
+      <c r="AQ234" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR234">
+        <v>205692</v>
+      </c>
+      <c r="AU234" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV234" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX234" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY234">
+        <v>631110</v>
+      </c>
+      <c r="AZ234">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="235" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>52</v>
+      </c>
+      <c r="B235" t="s">
+        <v>53</v>
+      </c>
+      <c r="C235">
+        <v>24001180</v>
+      </c>
+      <c r="D235">
+        <v>1204</v>
+      </c>
+      <c r="E235" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F235" t="s">
+        <v>54</v>
+      </c>
+      <c r="G235">
+        <v>3.06</v>
+      </c>
+      <c r="H235">
+        <v>3.06</v>
+      </c>
+      <c r="I235" t="s">
+        <v>55</v>
+      </c>
+      <c r="O235" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>56</v>
+      </c>
+      <c r="R235" t="s">
+        <v>57</v>
+      </c>
+      <c r="T235" t="s">
+        <v>58</v>
+      </c>
+      <c r="U235" t="s">
+        <v>59</v>
+      </c>
+      <c r="V235" t="s">
+        <v>60</v>
+      </c>
+      <c r="W235" t="s">
+        <v>61</v>
+      </c>
+      <c r="X235">
+        <v>2105342</v>
+      </c>
+      <c r="Y235" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z235" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA235">
+        <v>4</v>
+      </c>
+      <c r="AB235" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD235" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE235" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF235" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG235">
+        <v>1</v>
+      </c>
+      <c r="AH235" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL235" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM235" s="1">
+        <v>45345</v>
+      </c>
+      <c r="AN235" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO235" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP235">
+        <v>1204</v>
+      </c>
+      <c r="AQ235" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR235">
+        <v>248484</v>
+      </c>
+      <c r="AU235" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV235" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX235" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY235">
+        <v>631110</v>
+      </c>
+      <c r="AZ235">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="236" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>52</v>
+      </c>
+      <c r="B236" t="s">
+        <v>53</v>
+      </c>
+      <c r="C236">
+        <v>24001180</v>
+      </c>
+      <c r="D236">
+        <v>1204</v>
+      </c>
+      <c r="E236" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F236" t="s">
+        <v>54</v>
+      </c>
+      <c r="G236">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H236">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I236" t="s">
+        <v>55</v>
+      </c>
+      <c r="O236" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q236" t="s">
+        <v>56</v>
+      </c>
+      <c r="R236" t="s">
+        <v>57</v>
+      </c>
+      <c r="T236" t="s">
+        <v>58</v>
+      </c>
+      <c r="U236" t="s">
+        <v>59</v>
+      </c>
+      <c r="V236" t="s">
+        <v>60</v>
+      </c>
+      <c r="W236" t="s">
+        <v>61</v>
+      </c>
+      <c r="X236">
+        <v>2105342</v>
+      </c>
+      <c r="Y236" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z236" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA236">
+        <v>6</v>
+      </c>
+      <c r="AB236" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD236" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE236" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF236" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG236">
+        <v>2</v>
+      </c>
+      <c r="AH236" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL236" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM236" s="1">
+        <v>45345</v>
+      </c>
+      <c r="AN236" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO236" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP236">
+        <v>1204</v>
+      </c>
+      <c r="AQ236" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR236">
+        <v>227388</v>
+      </c>
+      <c r="AU236" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV236" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX236" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY236">
+        <v>631110</v>
+      </c>
+      <c r="AZ236">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="237" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>52</v>
+      </c>
+      <c r="B237" t="s">
+        <v>53</v>
+      </c>
+      <c r="C237">
+        <v>24001180</v>
+      </c>
+      <c r="D237">
+        <v>1204</v>
+      </c>
+      <c r="E237" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F237" t="s">
+        <v>54</v>
+      </c>
+      <c r="G237">
+        <v>1.27</v>
+      </c>
+      <c r="H237">
+        <v>1.27</v>
+      </c>
+      <c r="I237" t="s">
+        <v>55</v>
+      </c>
+      <c r="O237" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>56</v>
+      </c>
+      <c r="R237" t="s">
+        <v>57</v>
+      </c>
+      <c r="T237" t="s">
+        <v>58</v>
+      </c>
+      <c r="U237" t="s">
+        <v>59</v>
+      </c>
+      <c r="V237" t="s">
+        <v>60</v>
+      </c>
+      <c r="W237" t="s">
+        <v>61</v>
+      </c>
+      <c r="X237">
+        <v>2105342</v>
+      </c>
+      <c r="Y237" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z237" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA237">
+        <v>8</v>
+      </c>
+      <c r="AB237" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD237" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE237" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF237" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG237">
+        <v>1</v>
+      </c>
+      <c r="AH237" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL237" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM237" s="1">
+        <v>45345</v>
+      </c>
+      <c r="AN237" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO237" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP237">
+        <v>1204</v>
+      </c>
+      <c r="AQ237" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR237">
+        <v>89785</v>
+      </c>
+      <c r="AU237" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV237" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX237" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY237">
+        <v>631110</v>
+      </c>
+      <c r="AZ237">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="238" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>52</v>
+      </c>
+      <c r="B238" t="s">
+        <v>53</v>
+      </c>
+      <c r="C238">
+        <v>24001180</v>
+      </c>
+      <c r="D238">
+        <v>1204</v>
+      </c>
+      <c r="E238" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F238" t="s">
+        <v>54</v>
+      </c>
+      <c r="G238">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="H238">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="I238" t="s">
+        <v>55</v>
+      </c>
+      <c r="O238" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q238" t="s">
+        <v>56</v>
+      </c>
+      <c r="R238" t="s">
+        <v>57</v>
+      </c>
+      <c r="T238" t="s">
+        <v>58</v>
+      </c>
+      <c r="U238" t="s">
+        <v>59</v>
+      </c>
+      <c r="V238" t="s">
+        <v>60</v>
+      </c>
+      <c r="W238" t="s">
+        <v>61</v>
+      </c>
+      <c r="X238">
+        <v>2105342</v>
+      </c>
+      <c r="Y238" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z238" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA238">
+        <v>10</v>
+      </c>
+      <c r="AB238" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD238" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE238" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF238" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG238">
+        <v>1</v>
+      </c>
+      <c r="AH238" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL238" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM238" s="1">
+        <v>45345</v>
+      </c>
+      <c r="AN238" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO238" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP238">
+        <v>1204</v>
+      </c>
+      <c r="AQ238" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR238">
+        <v>205695</v>
+      </c>
+      <c r="AU238" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV238" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX238" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY238">
+        <v>631110</v>
+      </c>
+      <c r="AZ238">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="239" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>52</v>
+      </c>
+      <c r="B239" t="s">
+        <v>53</v>
+      </c>
+      <c r="C239">
+        <v>24001180</v>
+      </c>
+      <c r="D239">
+        <v>1204</v>
+      </c>
+      <c r="E239" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F239" t="s">
+        <v>54</v>
+      </c>
+      <c r="G239">
+        <v>16.14</v>
+      </c>
+      <c r="H239">
+        <v>16.14</v>
+      </c>
+      <c r="I239" t="s">
+        <v>55</v>
+      </c>
+      <c r="O239" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q239" t="s">
+        <v>56</v>
+      </c>
+      <c r="R239" t="s">
+        <v>57</v>
+      </c>
+      <c r="T239" t="s">
+        <v>58</v>
+      </c>
+      <c r="U239" t="s">
+        <v>59</v>
+      </c>
+      <c r="V239" t="s">
+        <v>60</v>
+      </c>
+      <c r="W239" t="s">
+        <v>61</v>
+      </c>
+      <c r="X239">
+        <v>2105342</v>
+      </c>
+      <c r="Y239" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z239" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA239">
+        <v>12</v>
+      </c>
+      <c r="AB239" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD239" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE239" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF239" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG239">
+        <v>1</v>
+      </c>
+      <c r="AH239" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL239" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM239" s="1">
+        <v>45345</v>
+      </c>
+      <c r="AN239" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO239" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP239">
+        <v>1204</v>
+      </c>
+      <c r="AQ239" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR239">
+        <v>89930</v>
+      </c>
+      <c r="AU239" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV239" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX239" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY239">
+        <v>631110</v>
+      </c>
+      <c r="AZ239">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="240" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>52</v>
+      </c>
+      <c r="B240" t="s">
+        <v>53</v>
+      </c>
+      <c r="C240">
+        <v>24001180</v>
+      </c>
+      <c r="D240">
+        <v>1204</v>
+      </c>
+      <c r="E240" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F240" t="s">
+        <v>54</v>
+      </c>
+      <c r="G240">
+        <v>0.47</v>
+      </c>
+      <c r="H240">
+        <v>0.47</v>
+      </c>
+      <c r="I240" t="s">
+        <v>55</v>
+      </c>
+      <c r="O240" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q240" t="s">
+        <v>56</v>
+      </c>
+      <c r="R240" t="s">
+        <v>57</v>
+      </c>
+      <c r="T240" t="s">
+        <v>58</v>
+      </c>
+      <c r="U240" t="s">
+        <v>59</v>
+      </c>
+      <c r="V240" t="s">
+        <v>60</v>
+      </c>
+      <c r="W240" t="s">
+        <v>61</v>
+      </c>
+      <c r="X240">
+        <v>2105342</v>
+      </c>
+      <c r="Y240" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z240" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA240">
+        <v>14</v>
+      </c>
+      <c r="AB240" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD240" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE240" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF240" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG240">
+        <v>3</v>
+      </c>
+      <c r="AH240" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL240" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM240" s="1">
+        <v>45345</v>
+      </c>
+      <c r="AN240" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO240" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP240">
+        <v>1204</v>
+      </c>
+      <c r="AQ240" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR240">
+        <v>88760</v>
+      </c>
+      <c r="AU240" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV240" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX240" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY240">
+        <v>631110</v>
+      </c>
+      <c r="AZ240">
+        <v>1204.63111</v>
+      </c>
+    </row>
+    <row r="241" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F241" t="s">
+        <v>71</v>
+      </c>
+      <c r="G241" s="2">
+        <v>4045.48</v>
+      </c>
+      <c r="H241" s="2">
+        <v>4088.2</v>
+      </c>
+      <c r="K241">
+        <v>-42.72</v>
+      </c>
+      <c r="AG241" s="2">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="242" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F242" t="s">
+        <v>72</v>
+      </c>
+      <c r="G242" s="2">
+        <v>4045.48</v>
+      </c>
+      <c r="H242" s="2">
+        <v>4045.48</v>
+      </c>
+      <c r="AG242" s="2">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="243" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F243" t="s">
+        <v>73</v>
+      </c>
+      <c r="G243" s="2">
+        <v>4045.48</v>
+      </c>
+      <c r="H243" s="2">
+        <v>4088.2</v>
+      </c>
+      <c r="K243">
+        <v>-42.72</v>
+      </c>
+      <c r="AG243" s="2">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="244" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F244" t="s">
         <v>74</v>
       </c>
     </row>
